--- a/demo/src/data/SubwayInfoList.xlsx
+++ b/demo/src/data/SubwayInfoList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\react_nodeExpress\demo\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC3DFA8-CE89-44A3-AAF0-CB487A77CC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6132E03-0A9E-4347-9D39-7D037973A7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3360" yWindow="615" windowWidth="25140" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29460" yWindow="810" windowWidth="25140" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="서울시 지하철역 정보 검색 (역명)" sheetId="1" r:id="rId1"/>
@@ -3930,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/demo/src/data/SubwayInfoList.xlsx
+++ b/demo/src/data/SubwayInfoList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\react_nodeExpress\demo\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE83B6EB-4CAB-45F3-9693-9EB0965FFAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5D0F82-3D23-426E-B8A6-E1D80D6ACC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="840" windowWidth="25140" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="990" windowWidth="25140" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="서울시 지하철역 정보 검색 (역명)" sheetId="1" r:id="rId1"/>
@@ -2978,6 +2978,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3593,7 +3596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3604,6 +3607,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3963,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D768"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="H553" sqref="H553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3991,7 +3997,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4005,7 +4011,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>151</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4019,7 +4025,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4033,7 +4039,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4047,7 +4053,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4061,7 +4067,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>155</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4075,7 +4081,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4089,7 +4095,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>157</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4103,7 +4109,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>158</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4117,7 +4123,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>159</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -4131,7 +4137,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>200</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4145,7 +4151,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>201</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4159,7 +4165,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>202</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4173,7 +4179,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>203</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4187,7 +4193,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>204</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4201,7 +4207,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>205</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4215,7 +4221,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>206</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4229,7 +4235,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>207</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4243,7 +4249,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>208</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4257,7 +4263,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>209</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4271,7 +4277,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>210</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4285,7 +4291,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>211</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4299,7 +4305,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>212</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4313,7 +4319,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>213</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4327,7 +4333,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>214</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4341,7 +4347,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>215</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4355,7 +4361,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>216</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4369,7 +4375,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>217</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4383,7 +4389,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>218</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4397,7 +4403,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>219</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4411,7 +4417,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>220</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4425,7 +4431,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>221</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4439,7 +4445,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>222</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4453,7 +4459,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>223</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4467,7 +4473,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>224</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4481,7 +4487,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>225</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4495,7 +4501,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>226</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -4509,7 +4515,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>227</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4523,7 +4529,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>228</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4537,7 +4543,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>229</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -4551,7 +4557,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>230</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4565,7 +4571,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>231</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -4579,7 +4585,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>232</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -4593,7 +4599,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>233</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -4607,7 +4613,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>234</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -4621,7 +4627,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>235</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -4635,7 +4641,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>236</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -4649,7 +4655,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>237</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4663,7 +4669,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>238</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -4677,7 +4683,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>239</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -4691,7 +4697,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>240</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -4705,7 +4711,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>241</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -4719,7 +4725,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>242</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -4733,7 +4739,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>243</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -4747,7 +4753,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>244</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -4761,7 +4767,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>245</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -4775,7 +4781,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>246</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -4789,7 +4795,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>247</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -4803,7 +4809,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>248</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -4817,7 +4823,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>249</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4831,7 +4837,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>250</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -4845,7 +4851,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>300</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -4859,7 +4865,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>309</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4873,7 +4879,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>310</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -4887,7 +4893,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>311</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -4901,7 +4907,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>312</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4915,7 +4921,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>313</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -4929,7 +4935,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>314</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -4943,7 +4949,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>315</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -4957,7 +4963,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>316</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -4971,7 +4977,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>317</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -4985,7 +4991,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>318</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -4999,7 +5005,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>319</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -5013,7 +5019,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>320</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -5027,7 +5033,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>321</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -5041,7 +5047,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>322</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -5055,7 +5061,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>323</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -5069,7 +5075,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>324</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -5083,7 +5089,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>325</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -5097,7 +5103,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>326</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -5111,7 +5117,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>327</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -5125,7 +5131,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>328</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -5139,7 +5145,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>329</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -5153,7 +5159,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>330</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -5167,7 +5173,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>331</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -5181,7 +5187,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87" s="4">
         <v>332</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -5195,7 +5201,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>333</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -5209,7 +5215,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="4">
         <v>334</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -5223,7 +5229,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>335</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -5237,7 +5243,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="4">
         <v>336</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -5251,7 +5257,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>337</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -5265,7 +5271,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="4">
         <v>338</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -5279,7 +5285,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>339</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -5293,7 +5299,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="4">
         <v>340</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -5307,7 +5313,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>341</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -5321,7 +5327,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97" s="4">
         <v>342</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -5335,7 +5341,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="4">
         <v>405</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -5349,7 +5355,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99" s="4">
         <v>406</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -5363,7 +5369,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="4">
         <v>408</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -5377,7 +5383,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="4">
         <v>409</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -5391,7 +5397,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="4">
         <v>410</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -5405,7 +5411,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103" s="4">
         <v>411</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -5419,7 +5425,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="4">
         <v>412</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -5433,7 +5439,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105" s="4">
         <v>413</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -5447,7 +5453,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="4">
         <v>414</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -5461,7 +5467,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107" s="4">
         <v>415</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -5475,7 +5481,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="4">
         <v>416</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -5489,7 +5495,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="4">
         <v>417</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5503,7 +5509,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="4">
         <v>418</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -5517,7 +5523,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111" s="4">
         <v>419</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -5531,7 +5537,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="4">
         <v>420</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -5545,7 +5551,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="A113" s="4">
         <v>421</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -5559,7 +5565,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114" s="4">
         <v>422</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -5573,7 +5579,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115" s="4">
         <v>423</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -5587,7 +5593,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="4">
         <v>424</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -5601,7 +5607,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="4">
         <v>425</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -5615,7 +5621,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="4">
         <v>426</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -5629,7 +5635,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="A119" s="4">
         <v>427</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -5643,7 +5649,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120" s="4">
         <v>428</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -5657,7 +5663,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="4">
         <v>429</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -5671,7 +5677,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="4">
         <v>430</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -5685,7 +5691,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="A123" s="4">
         <v>431</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -5699,7 +5705,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="4">
         <v>432</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -5713,7 +5719,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="A125" s="4">
         <v>433</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -5727,7 +5733,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="4">
         <v>434</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -5741,7 +5747,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="A127" s="4">
         <v>1002</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -5755,7 +5761,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="4">
         <v>1003</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -5769,7 +5775,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="A129" s="4">
         <v>1004</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -5783,7 +5789,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130" s="4">
         <v>1005</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -5797,7 +5803,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="A131" s="4">
         <v>1006</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -5811,7 +5817,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="A132" s="4">
         <v>1007</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -5825,7 +5831,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="A133" s="4">
         <v>1008</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -5839,7 +5845,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134" s="4">
         <v>1009</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -5853,7 +5859,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="A135" s="4">
         <v>1010</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -5867,7 +5873,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136" s="4">
         <v>1011</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -5881,7 +5887,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="A137" s="4">
         <v>1012</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -5895,7 +5901,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="4">
         <v>1013</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -5909,7 +5915,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="A139" s="4">
         <v>1014</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -5923,7 +5929,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="4">
         <v>1015</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -5937,7 +5943,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="A141" s="4">
         <v>1016</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -5951,7 +5957,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142" s="4">
         <v>1017</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -5965,7 +5971,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="A143" s="4">
         <v>1018</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -5979,7 +5985,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="A144" s="4">
         <v>1019</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -5993,7 +5999,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145" s="4">
         <v>1020</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -6007,7 +6013,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146" s="4">
         <v>1021</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -6021,7 +6027,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="A147" s="4">
         <v>1022</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -6035,7 +6041,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148" s="4">
         <v>1023</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -6049,7 +6055,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="A149" s="4">
         <v>1024</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -6063,7 +6069,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150" s="4">
         <v>1025</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -6077,7 +6083,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="A151" s="4">
         <v>1026</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -6091,7 +6097,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152" s="4">
         <v>1027</v>
       </c>
       <c r="B152" s="3" t="s">
@@ -6105,7 +6111,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153" s="4">
         <v>1028</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -6119,7 +6125,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154" s="4">
         <v>1030</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -6133,7 +6139,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155" s="4">
         <v>1031</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -6147,7 +6153,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156" s="4">
         <v>1032</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -6161,7 +6167,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157" s="4">
         <v>1201</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -6175,7 +6181,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158" s="4">
         <v>1202</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -6189,7 +6195,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="A159" s="4">
         <v>1203</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -6203,7 +6209,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160" s="4">
         <v>1204</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -6217,7 +6223,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="A161" s="4">
         <v>1205</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -6231,7 +6237,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="4">
         <v>1206</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -6245,7 +6251,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163" s="4">
         <v>1207</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -6259,7 +6265,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="4">
         <v>1208</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -6273,7 +6279,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="A165" s="4">
         <v>1209</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -6287,7 +6293,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="4">
         <v>1210</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -6301,7 +6307,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="A167" s="4">
         <v>1211</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -6315,7 +6321,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168" s="4">
         <v>1212</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -6329,7 +6335,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="A169" s="4">
         <v>1213</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -6343,7 +6349,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170" s="4">
         <v>1214</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -6357,7 +6363,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="A171" s="4">
         <v>1215</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -6371,7 +6377,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="A172" s="4">
         <v>1216</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -6385,7 +6391,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="A173" s="4">
         <v>1217</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -6399,7 +6405,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="A174" s="4">
         <v>1218</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -6413,7 +6419,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="A175" s="4">
         <v>1219</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -6427,7 +6433,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="A176" s="4">
         <v>1220</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -6441,7 +6447,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="A177" s="4">
         <v>1251</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -6455,7 +6461,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="A178" s="4">
         <v>1252</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -6469,7 +6475,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="A179" s="4">
         <v>1261</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -6483,7 +6489,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="A180" s="4">
         <v>1262</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -6497,7 +6503,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+      <c r="A181" s="4">
         <v>1263</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -6511,7 +6517,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+      <c r="A182" s="4">
         <v>1264</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -6525,7 +6531,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+      <c r="A183" s="4">
         <v>1265</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -6539,7 +6545,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="A184" s="4">
         <v>1266</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -6553,7 +6559,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+      <c r="A185" s="4">
         <v>1267</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -6567,7 +6573,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="A186" s="4">
         <v>1268</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -6581,7 +6587,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+      <c r="A187" s="4">
         <v>1269</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -6595,7 +6601,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+      <c r="A188" s="4">
         <v>1270</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -6609,7 +6615,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+      <c r="A189" s="4">
         <v>1271</v>
       </c>
       <c r="B189" s="3" t="s">
@@ -6623,7 +6629,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="A190" s="4">
         <v>1272</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -6637,7 +6643,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+      <c r="A191" s="4">
         <v>1273</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -6651,7 +6657,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="A192" s="4">
         <v>1274</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -6665,7 +6671,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="A193" s="4">
         <v>1275</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -6679,7 +6685,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="A194" s="4">
         <v>1276</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -6693,7 +6699,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+      <c r="A195" s="4">
         <v>1277</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -6707,7 +6713,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="A196" s="4">
         <v>1278</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -6721,7 +6727,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+      <c r="A197" s="4">
         <v>1279</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -6735,7 +6741,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="A198" s="4">
         <v>1280</v>
       </c>
       <c r="B198" s="3" t="s">
@@ -6749,7 +6755,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="A199" s="4">
         <v>1282</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -6763,7 +6769,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="A200" s="4">
         <v>1283</v>
       </c>
       <c r="B200" s="3" t="s">
@@ -6777,7 +6783,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="A201" s="4">
         <v>1284</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -6791,7 +6797,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="A202" s="4">
         <v>1285</v>
       </c>
       <c r="B202" s="3" t="s">
@@ -6805,7 +6811,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+      <c r="A203" s="4">
         <v>1305</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -6819,7 +6825,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="A204" s="4">
         <v>1306</v>
       </c>
       <c r="B204" s="3" t="s">
@@ -6833,7 +6839,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+      <c r="A205" s="4">
         <v>1307</v>
       </c>
       <c r="B205" s="3" t="s">
@@ -6847,7 +6853,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+      <c r="A206" s="4">
         <v>1308</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -6861,7 +6867,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+      <c r="A207" s="4">
         <v>1309</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -6875,7 +6881,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+      <c r="A208" s="4">
         <v>1310</v>
       </c>
       <c r="B208" s="3" t="s">
@@ -6889,7 +6895,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+      <c r="A209" s="4">
         <v>1311</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -6903,7 +6909,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+      <c r="A210" s="4">
         <v>1312</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -6917,7 +6923,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+      <c r="A211" s="4">
         <v>1313</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -6931,7 +6937,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+      <c r="A212" s="4">
         <v>1314</v>
       </c>
       <c r="B212" s="3" t="s">
@@ -6945,7 +6951,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+      <c r="A213" s="4">
         <v>1315</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -6959,7 +6965,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+      <c r="A214" s="4">
         <v>1316</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -6973,7 +6979,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+      <c r="A215" s="4">
         <v>1317</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -6987,7 +6993,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+      <c r="A216" s="4">
         <v>1318</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -7001,7 +7007,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+      <c r="A217" s="4">
         <v>1319</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -7015,7 +7021,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+      <c r="A218" s="4">
         <v>1320</v>
       </c>
       <c r="B218" s="3" t="s">
@@ -7029,7 +7035,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+      <c r="A219" s="4">
         <v>1321</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -7043,7 +7049,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+      <c r="A220" s="4">
         <v>1322</v>
       </c>
       <c r="B220" s="3" t="s">
@@ -7057,7 +7063,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
+      <c r="A221" s="4">
         <v>1323</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -7071,7 +7077,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+      <c r="A222" s="4">
         <v>1324</v>
       </c>
       <c r="B222" s="3" t="s">
@@ -7085,7 +7091,7 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
+      <c r="A223" s="4">
         <v>1325</v>
       </c>
       <c r="B223" s="3" t="s">
@@ -7099,7 +7105,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+      <c r="A224" s="4">
         <v>1326</v>
       </c>
       <c r="B224" s="3" t="s">
@@ -7113,7 +7119,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
+      <c r="A225" s="4">
         <v>1327</v>
       </c>
       <c r="B225" s="3" t="s">
@@ -7127,7 +7133,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+      <c r="A226" s="4">
         <v>1328</v>
       </c>
       <c r="B226" s="3" t="s">
@@ -7141,7 +7147,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
+      <c r="A227" s="4">
         <v>1329</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -7155,7 +7161,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+      <c r="A228" s="4">
         <v>1401</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -7169,7 +7175,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
+      <c r="A229" s="4">
         <v>1402</v>
       </c>
       <c r="B229" s="3" t="s">
@@ -7183,7 +7189,7 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+      <c r="A230" s="4">
         <v>1403</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -7197,7 +7203,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
+      <c r="A231" s="4">
         <v>1404</v>
       </c>
       <c r="B231" s="3" t="s">
@@ -7211,7 +7217,7 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="A232" s="4">
         <v>1405</v>
       </c>
       <c r="B232" s="3" t="s">
@@ -7225,7 +7231,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
+      <c r="A233" s="4">
         <v>1407</v>
       </c>
       <c r="B233" s="3" t="s">
@@ -7239,7 +7245,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+      <c r="A234" s="4">
         <v>1408</v>
       </c>
       <c r="B234" s="3" t="s">
@@ -7253,7 +7259,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
+      <c r="A235" s="4">
         <v>1450</v>
       </c>
       <c r="B235" s="3" t="s">
@@ -7267,7 +7273,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="A236" s="4">
         <v>1451</v>
       </c>
       <c r="B236" s="3" t="s">
@@ -7281,7 +7287,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
+      <c r="A237" s="4">
         <v>1452</v>
       </c>
       <c r="B237" s="3" t="s">
@@ -7295,7 +7301,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="A238" s="4">
         <v>1453</v>
       </c>
       <c r="B238" s="3" t="s">
@@ -7309,7 +7315,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="3">
+      <c r="A239" s="4">
         <v>1454</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -7323,7 +7329,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
+      <c r="A240" s="4">
         <v>1455</v>
       </c>
       <c r="B240" s="3" t="s">
@@ -7337,7 +7343,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
+      <c r="A241" s="4">
         <v>1456</v>
       </c>
       <c r="B241" s="3" t="s">
@@ -7351,7 +7357,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
+      <c r="A242" s="4">
         <v>1457</v>
       </c>
       <c r="B242" s="3" t="s">
@@ -7365,7 +7371,7 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
+      <c r="A243" s="4">
         <v>1458</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -7379,7 +7385,7 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
+      <c r="A244" s="4">
         <v>1501</v>
       </c>
       <c r="B244" s="3" t="s">
@@ -7393,7 +7399,7 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
+      <c r="A245" s="4">
         <v>1502</v>
       </c>
       <c r="B245" s="3" t="s">
@@ -7407,7 +7413,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
+      <c r="A246" s="4">
         <v>1503</v>
       </c>
       <c r="B246" s="3" t="s">
@@ -7421,7 +7427,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
+      <c r="A247" s="4">
         <v>1504</v>
       </c>
       <c r="B247" s="3" t="s">
@@ -7435,7 +7441,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
+      <c r="A248" s="4">
         <v>1505</v>
       </c>
       <c r="B248" s="3" t="s">
@@ -7449,7 +7455,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
+      <c r="A249" s="4">
         <v>1506</v>
       </c>
       <c r="B249" s="3" t="s">
@@ -7463,7 +7469,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+      <c r="A250" s="4">
         <v>1507</v>
       </c>
       <c r="B250" s="3" t="s">
@@ -7477,7 +7483,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
+      <c r="A251" s="4">
         <v>1508</v>
       </c>
       <c r="B251" s="3" t="s">
@@ -7491,7 +7497,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
+      <c r="A252" s="4">
         <v>1509</v>
       </c>
       <c r="B252" s="3" t="s">
@@ -7505,7 +7511,7 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="3">
+      <c r="A253" s="4">
         <v>1510</v>
       </c>
       <c r="B253" s="3" t="s">
@@ -7519,7 +7525,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
+      <c r="A254" s="4">
         <v>1511</v>
       </c>
       <c r="B254" s="3" t="s">
@@ -7533,7 +7539,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
+      <c r="A255" s="4">
         <v>1701</v>
       </c>
       <c r="B255" s="3" t="s">
@@ -7547,7 +7553,7 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
+      <c r="A256" s="4">
         <v>1702</v>
       </c>
       <c r="B256" s="3" t="s">
@@ -7561,7 +7567,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="3">
+      <c r="A257" s="4">
         <v>1703</v>
       </c>
       <c r="B257" s="3" t="s">
@@ -7575,7 +7581,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
+      <c r="A258" s="4">
         <v>1704</v>
       </c>
       <c r="B258" s="3" t="s">
@@ -7589,7 +7595,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="3">
+      <c r="A259" s="4">
         <v>1705</v>
       </c>
       <c r="B259" s="3" t="s">
@@ -7603,7 +7609,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
+      <c r="A260" s="4">
         <v>1706</v>
       </c>
       <c r="B260" s="3" t="s">
@@ -7617,7 +7623,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
+      <c r="A261" s="4">
         <v>1707</v>
       </c>
       <c r="B261" s="3" t="s">
@@ -7631,7 +7637,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
+      <c r="A262" s="4">
         <v>1708</v>
       </c>
       <c r="B262" s="3" t="s">
@@ -7645,7 +7651,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="3">
+      <c r="A263" s="4">
         <v>1709</v>
       </c>
       <c r="B263" s="3" t="s">
@@ -7659,7 +7665,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
+      <c r="A264" s="4">
         <v>1710</v>
       </c>
       <c r="B264" s="3" t="s">
@@ -7673,7 +7679,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="3">
+      <c r="A265" s="4">
         <v>1711</v>
       </c>
       <c r="B265" s="3" t="s">
@@ -7687,7 +7693,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
+      <c r="A266" s="4">
         <v>1712</v>
       </c>
       <c r="B266" s="3" t="s">
@@ -7701,7 +7707,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="3">
+      <c r="A267" s="4">
         <v>1713</v>
       </c>
       <c r="B267" s="3" t="s">
@@ -7715,7 +7721,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="3">
+      <c r="A268" s="4">
         <v>1714</v>
       </c>
       <c r="B268" s="3" t="s">
@@ -7729,7 +7735,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="3">
+      <c r="A269" s="4">
         <v>1715</v>
       </c>
       <c r="B269" s="3" t="s">
@@ -7743,7 +7749,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
+      <c r="A270" s="4">
         <v>1716</v>
       </c>
       <c r="B270" s="3" t="s">
@@ -7757,7 +7763,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="3">
+      <c r="A271" s="4">
         <v>1717</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -7771,7 +7777,7 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
+      <c r="A272" s="4">
         <v>1718</v>
       </c>
       <c r="B272" s="3" t="s">
@@ -7785,7 +7791,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="3">
+      <c r="A273" s="4">
         <v>1719</v>
       </c>
       <c r="B273" s="3" t="s">
@@ -7799,7 +7805,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
+      <c r="A274" s="4">
         <v>1720</v>
       </c>
       <c r="B274" s="3" t="s">
@@ -7813,7 +7819,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
+      <c r="A275" s="4">
         <v>1721</v>
       </c>
       <c r="B275" s="3" t="s">
@@ -7827,7 +7833,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
+      <c r="A276" s="4">
         <v>1722</v>
       </c>
       <c r="B276" s="3" t="s">
@@ -7841,7 +7847,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
+      <c r="A277" s="4">
         <v>1723</v>
       </c>
       <c r="B277" s="3" t="s">
@@ -7855,7 +7861,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="3">
+      <c r="A278" s="4">
         <v>1724</v>
       </c>
       <c r="B278" s="3" t="s">
@@ -7869,7 +7875,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
+      <c r="A279" s="4">
         <v>1725</v>
       </c>
       <c r="B279" s="3" t="s">
@@ -7883,7 +7889,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="3">
+      <c r="A280" s="4">
         <v>1726</v>
       </c>
       <c r="B280" s="3" t="s">
@@ -7897,7 +7903,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="3">
+      <c r="A281" s="4">
         <v>1727</v>
       </c>
       <c r="B281" s="3" t="s">
@@ -7911,7 +7917,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="3">
+      <c r="A282" s="4">
         <v>1728</v>
       </c>
       <c r="B282" s="3" t="s">
@@ -7925,7 +7931,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="3">
+      <c r="A283" s="4">
         <v>1729</v>
       </c>
       <c r="B283" s="3" t="s">
@@ -7939,7 +7945,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="3">
+      <c r="A284" s="4">
         <v>1749</v>
       </c>
       <c r="B284" s="3" t="s">
@@ -7953,7 +7959,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="3">
+      <c r="A285" s="4">
         <v>1750</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -7967,7 +7973,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="3">
+      <c r="A286" s="4">
         <v>1751</v>
       </c>
       <c r="B286" s="3" t="s">
@@ -7981,7 +7987,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="3">
+      <c r="A287" s="4">
         <v>1752</v>
       </c>
       <c r="B287" s="3" t="s">
@@ -7995,7 +8001,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
+      <c r="A288" s="4">
         <v>1753</v>
       </c>
       <c r="B288" s="3" t="s">
@@ -8009,7 +8015,7 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="3">
+      <c r="A289" s="4">
         <v>1754</v>
       </c>
       <c r="B289" s="3" t="s">
@@ -8023,7 +8029,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="3">
+      <c r="A290" s="4">
         <v>1755</v>
       </c>
       <c r="B290" s="3" t="s">
@@ -8037,7 +8043,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="3">
+      <c r="A291" s="4">
         <v>1756</v>
       </c>
       <c r="B291" s="3" t="s">
@@ -8051,7 +8057,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="3">
+      <c r="A292" s="4">
         <v>1757</v>
       </c>
       <c r="B292" s="3" t="s">
@@ -8065,7 +8071,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="3">
+      <c r="A293" s="4">
         <v>1758</v>
       </c>
       <c r="B293" s="3" t="s">
@@ -8079,7 +8085,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="3">
+      <c r="A294" s="4">
         <v>1759</v>
       </c>
       <c r="B294" s="3" t="s">
@@ -8093,7 +8099,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="3">
+      <c r="A295" s="4">
         <v>1760</v>
       </c>
       <c r="B295" s="3" t="s">
@@ -8107,7 +8113,7 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="3">
+      <c r="A296" s="4">
         <v>1761</v>
       </c>
       <c r="B296" s="3" t="s">
@@ -8121,7 +8127,7 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="3">
+      <c r="A297" s="4">
         <v>1762</v>
       </c>
       <c r="B297" s="3" t="s">
@@ -8135,7 +8141,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="3">
+      <c r="A298" s="4">
         <v>1763</v>
       </c>
       <c r="B298" s="3" t="s">
@@ -8149,7 +8155,7 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
+      <c r="A299" s="4">
         <v>1800</v>
       </c>
       <c r="B299" s="3" t="s">
@@ -8163,7 +8169,7 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="3">
+      <c r="A300" s="4">
         <v>1801</v>
       </c>
       <c r="B300" s="3" t="s">
@@ -8177,7 +8183,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="3">
+      <c r="A301" s="4">
         <v>1802</v>
       </c>
       <c r="B301" s="3" t="s">
@@ -8191,7 +8197,7 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="3">
+      <c r="A302" s="4">
         <v>1803</v>
       </c>
       <c r="B302" s="3" t="s">
@@ -8205,7 +8211,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="3">
+      <c r="A303" s="4">
         <v>1804</v>
       </c>
       <c r="B303" s="3" t="s">
@@ -8219,7 +8225,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="3">
+      <c r="A304" s="4">
         <v>1805</v>
       </c>
       <c r="B304" s="3" t="s">
@@ -8233,7 +8239,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="3">
+      <c r="A305" s="4">
         <v>1806</v>
       </c>
       <c r="B305" s="3" t="s">
@@ -8247,7 +8253,7 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="3">
+      <c r="A306" s="4">
         <v>1807</v>
       </c>
       <c r="B306" s="3" t="s">
@@ -8261,7 +8267,7 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="3">
+      <c r="A307" s="4">
         <v>1808</v>
       </c>
       <c r="B307" s="3" t="s">
@@ -8275,7 +8281,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="3">
+      <c r="A308" s="4">
         <v>1809</v>
       </c>
       <c r="B308" s="3" t="s">
@@ -8289,7 +8295,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="3">
+      <c r="A309" s="4">
         <v>1810</v>
       </c>
       <c r="B309" s="3" t="s">
@@ -8303,7 +8309,7 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="3">
+      <c r="A310" s="4">
         <v>1811</v>
       </c>
       <c r="B310" s="3" t="s">
@@ -8317,7 +8323,7 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" s="3">
+      <c r="A311" s="4">
         <v>1812</v>
       </c>
       <c r="B311" s="3" t="s">
@@ -8331,7 +8337,7 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="3">
+      <c r="A312" s="4">
         <v>1813</v>
       </c>
       <c r="B312" s="3" t="s">
@@ -8345,7 +8351,7 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" s="3">
+      <c r="A313" s="4">
         <v>1814</v>
       </c>
       <c r="B313" s="3" t="s">
@@ -8359,7 +8365,7 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" s="3">
+      <c r="A314" s="4">
         <v>1815</v>
       </c>
       <c r="B314" s="3" t="s">
@@ -8373,7 +8379,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="3">
+      <c r="A315" s="4">
         <v>1816</v>
       </c>
       <c r="B315" s="3" t="s">
@@ -8387,7 +8393,7 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="3">
+      <c r="A316" s="4">
         <v>1817</v>
       </c>
       <c r="B316" s="3" t="s">
@@ -8401,7 +8407,7 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="3">
+      <c r="A317" s="4">
         <v>1821</v>
       </c>
       <c r="B317" s="3" t="s">
@@ -8415,7 +8421,7 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="3">
+      <c r="A318" s="4">
         <v>1822</v>
       </c>
       <c r="B318" s="3" t="s">
@@ -8429,7 +8435,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="3">
+      <c r="A319" s="4">
         <v>1823</v>
       </c>
       <c r="B319" s="3" t="s">
@@ -8443,7 +8449,7 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="3">
+      <c r="A320" s="4">
         <v>1830</v>
       </c>
       <c r="B320" s="3" t="s">
@@ -8457,7 +8463,7 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="3">
+      <c r="A321" s="4">
         <v>1831</v>
       </c>
       <c r="B321" s="3" t="s">
@@ -8471,7 +8477,7 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" s="3">
+      <c r="A322" s="4">
         <v>1832</v>
       </c>
       <c r="B322" s="3" t="s">
@@ -8485,7 +8491,7 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="3">
+      <c r="A323" s="4">
         <v>1833</v>
       </c>
       <c r="B323" s="3" t="s">
@@ -8499,7 +8505,7 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" s="3">
+      <c r="A324" s="4">
         <v>1834</v>
       </c>
       <c r="B324" s="3" t="s">
@@ -8513,7 +8519,7 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="3">
+      <c r="A325" s="4">
         <v>1835</v>
       </c>
       <c r="B325" s="3" t="s">
@@ -8527,7 +8533,7 @@
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" s="3">
+      <c r="A326" s="4">
         <v>1836</v>
       </c>
       <c r="B326" s="3" t="s">
@@ -8541,7 +8547,7 @@
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="3">
+      <c r="A327" s="4">
         <v>1845</v>
       </c>
       <c r="B327" s="3" t="s">
@@ -8555,7 +8561,7 @@
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" s="3">
+      <c r="A328" s="4">
         <v>1846</v>
       </c>
       <c r="B328" s="3" t="s">
@@ -8569,7 +8575,7 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" s="3">
+      <c r="A329" s="4">
         <v>1847</v>
       </c>
       <c r="B329" s="3" t="s">
@@ -8583,7 +8589,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" s="3">
+      <c r="A330" s="4">
         <v>1848</v>
       </c>
       <c r="B330" s="3" t="s">
@@ -8597,7 +8603,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="3">
+      <c r="A331" s="4">
         <v>1849</v>
       </c>
       <c r="B331" s="3" t="s">
@@ -8611,7 +8617,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="3">
+      <c r="A332" s="4">
         <v>1850</v>
       </c>
       <c r="B332" s="3" t="s">
@@ -8625,7 +8631,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" s="3">
+      <c r="A333" s="4">
         <v>1851</v>
       </c>
       <c r="B333" s="3" t="s">
@@ -8639,7 +8645,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="3">
+      <c r="A334" s="4">
         <v>1852</v>
       </c>
       <c r="B334" s="3" t="s">
@@ -8653,7 +8659,7 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" s="3">
+      <c r="A335" s="4">
         <v>1853</v>
       </c>
       <c r="B335" s="3" t="s">
@@ -8667,7 +8673,7 @@
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" s="3">
+      <c r="A336" s="4">
         <v>1854</v>
       </c>
       <c r="B336" s="3" t="s">
@@ -8681,7 +8687,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" s="3">
+      <c r="A337" s="4">
         <v>1855</v>
       </c>
       <c r="B337" s="3" t="s">
@@ -8695,7 +8701,7 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" s="3">
+      <c r="A338" s="4">
         <v>1856</v>
       </c>
       <c r="B338" s="3" t="s">
@@ -8709,7 +8715,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339" s="3">
+      <c r="A339" s="4">
         <v>1857</v>
       </c>
       <c r="B339" s="3" t="s">
@@ -8723,7 +8729,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="3">
+      <c r="A340" s="4">
         <v>1858</v>
       </c>
       <c r="B340" s="3" t="s">
@@ -8737,7 +8743,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341" s="3">
+      <c r="A341" s="4">
         <v>1859</v>
       </c>
       <c r="B341" s="3" t="s">
@@ -8751,7 +8757,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" s="3">
+      <c r="A342" s="4">
         <v>1860</v>
       </c>
       <c r="B342" s="3" t="s">
@@ -8765,7 +8771,7 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" s="3">
+      <c r="A343" s="4">
         <v>1861</v>
       </c>
       <c r="B343" s="3" t="s">
@@ -8779,7 +8785,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" s="3">
+      <c r="A344" s="4">
         <v>1862</v>
       </c>
       <c r="B344" s="3" t="s">
@@ -8793,7 +8799,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345" s="3">
+      <c r="A345" s="4">
         <v>1863</v>
       </c>
       <c r="B345" s="3" t="s">
@@ -8807,7 +8813,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346" s="3">
+      <c r="A346" s="4">
         <v>1864</v>
       </c>
       <c r="B346" s="3" t="s">
@@ -8821,7 +8827,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="3">
+      <c r="A347" s="4">
         <v>1865</v>
       </c>
       <c r="B347" s="3" t="s">
@@ -8835,7 +8841,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348" s="3">
+      <c r="A348" s="4">
         <v>1866</v>
       </c>
       <c r="B348" s="3" t="s">
@@ -8849,7 +8855,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="3">
+      <c r="A349" s="4">
         <v>1867</v>
       </c>
       <c r="B349" s="3" t="s">
@@ -8863,7 +8869,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350" s="3">
+      <c r="A350" s="4">
         <v>1868</v>
       </c>
       <c r="B350" s="3" t="s">
@@ -8877,7 +8883,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351" s="3">
+      <c r="A351" s="4">
         <v>1869</v>
       </c>
       <c r="B351" s="3" t="s">
@@ -8891,7 +8897,7 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" s="3">
+      <c r="A352" s="4">
         <v>1870</v>
       </c>
       <c r="B352" s="3" t="s">
@@ -8905,7 +8911,7 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353" s="3">
+      <c r="A353" s="4">
         <v>1871</v>
       </c>
       <c r="B353" s="3" t="s">
@@ -8919,7 +8925,7 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" s="3">
+      <c r="A354" s="4">
         <v>1872</v>
       </c>
       <c r="B354" s="3" t="s">
@@ -8933,7 +8939,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" s="3">
+      <c r="A355" s="4">
         <v>1873</v>
       </c>
       <c r="B355" s="3" t="s">
@@ -8947,7 +8953,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="3">
+      <c r="A356" s="4">
         <v>1874</v>
       </c>
       <c r="B356" s="3" t="s">
@@ -8961,7 +8967,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357" s="3">
+      <c r="A357" s="4">
         <v>1875</v>
       </c>
       <c r="B357" s="3" t="s">
@@ -8975,7 +8981,7 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A358" s="3">
+      <c r="A358" s="4">
         <v>1876</v>
       </c>
       <c r="B358" s="3" t="s">
@@ -8989,7 +8995,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359" s="3">
+      <c r="A359" s="4">
         <v>1877</v>
       </c>
       <c r="B359" s="3" t="s">
@@ -9003,7 +9009,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" s="3">
+      <c r="A360" s="4">
         <v>1878</v>
       </c>
       <c r="B360" s="3" t="s">
@@ -9017,7 +9023,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" s="3">
+      <c r="A361" s="4">
         <v>1879</v>
       </c>
       <c r="B361" s="3" t="s">
@@ -9031,7 +9037,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362" s="3">
+      <c r="A362" s="4">
         <v>1880</v>
       </c>
       <c r="B362" s="3" t="s">
@@ -9045,7 +9051,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" s="3">
+      <c r="A363" s="4">
         <v>1881</v>
       </c>
       <c r="B363" s="3" t="s">
@@ -9059,7 +9065,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A364" s="3">
+      <c r="A364" s="4">
         <v>1882</v>
       </c>
       <c r="B364" s="3" t="s">
@@ -9073,7 +9079,7 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365" s="3">
+      <c r="A365" s="4">
         <v>1883</v>
       </c>
       <c r="B365" s="3" t="s">
@@ -9087,7 +9093,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A366" s="3">
+      <c r="A366" s="4">
         <v>1884</v>
       </c>
       <c r="B366" s="3" t="s">
@@ -9101,7 +9107,7 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="3">
+      <c r="A367" s="4">
         <v>1885</v>
       </c>
       <c r="B367" s="3" t="s">
@@ -9115,7 +9121,7 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="3">
+      <c r="A368" s="4">
         <v>1886</v>
       </c>
       <c r="B368" s="3" t="s">
@@ -9129,7 +9135,7 @@
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369" s="3">
+      <c r="A369" s="4">
         <v>1888</v>
       </c>
       <c r="B369" s="3" t="s">
@@ -9143,7 +9149,7 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370" s="3">
+      <c r="A370" s="4">
         <v>1889</v>
       </c>
       <c r="B370" s="3" t="s">
@@ -9157,7 +9163,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A371" s="3">
+      <c r="A371" s="4">
         <v>1890</v>
       </c>
       <c r="B371" s="3" t="s">
@@ -9171,7 +9177,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A372" s="3">
+      <c r="A372" s="4">
         <v>1891</v>
       </c>
       <c r="B372" s="3" t="s">
@@ -9185,7 +9191,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373" s="3">
+      <c r="A373" s="4">
         <v>1901</v>
       </c>
       <c r="B373" s="3" t="s">
@@ -9199,7 +9205,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A374" s="3">
+      <c r="A374" s="4">
         <v>1902</v>
       </c>
       <c r="B374" s="3" t="s">
@@ -9213,7 +9219,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375" s="3">
+      <c r="A375" s="4">
         <v>1903</v>
       </c>
       <c r="B375" s="3" t="s">
@@ -9227,7 +9233,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376" s="3">
+      <c r="A376" s="4">
         <v>1904</v>
       </c>
       <c r="B376" s="3" t="s">
@@ -9241,7 +9247,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377" s="3">
+      <c r="A377" s="4">
         <v>1905</v>
       </c>
       <c r="B377" s="3" t="s">
@@ -9255,7 +9261,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="3">
+      <c r="A378" s="4">
         <v>1906</v>
       </c>
       <c r="B378" s="3" t="s">
@@ -9269,7 +9275,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A379" s="3">
+      <c r="A379" s="4">
         <v>1907</v>
       </c>
       <c r="B379" s="3" t="s">
@@ -9283,7 +9289,7 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380" s="3">
+      <c r="A380" s="4">
         <v>1908</v>
       </c>
       <c r="B380" s="3" t="s">
@@ -9297,7 +9303,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381" s="3">
+      <c r="A381" s="4">
         <v>1909</v>
       </c>
       <c r="B381" s="3" t="s">
@@ -9311,7 +9317,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A382" s="3">
+      <c r="A382" s="4">
         <v>1910</v>
       </c>
       <c r="B382" s="3" t="s">
@@ -9325,7 +9331,7 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A383" s="3">
+      <c r="A383" s="4">
         <v>1911</v>
       </c>
       <c r="B383" s="3" t="s">
@@ -9339,7 +9345,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A384" s="3">
+      <c r="A384" s="4">
         <v>1912</v>
       </c>
       <c r="B384" s="3" t="s">
@@ -9353,7 +9359,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385" s="3">
+      <c r="A385" s="4">
         <v>1913</v>
       </c>
       <c r="B385" s="3" t="s">
@@ -9367,7 +9373,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A386" s="3">
+      <c r="A386" s="4">
         <v>1914</v>
       </c>
       <c r="B386" s="3" t="s">
@@ -9381,7 +9387,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A387" s="3">
+      <c r="A387" s="4">
         <v>1915</v>
       </c>
       <c r="B387" s="3" t="s">
@@ -9395,7 +9401,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A388" s="3">
+      <c r="A388" s="4">
         <v>1916</v>
       </c>
       <c r="B388" s="3" t="s">
@@ -9409,7 +9415,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389" s="3">
+      <c r="A389" s="4">
         <v>1948</v>
       </c>
       <c r="B389" s="3" t="s">
@@ -9423,7 +9429,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A390" s="3">
+      <c r="A390" s="4">
         <v>1950</v>
       </c>
       <c r="B390" s="3" t="s">
@@ -9437,7 +9443,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A391" s="3">
+      <c r="A391" s="4">
         <v>1951</v>
       </c>
       <c r="B391" s="3" t="s">
@@ -9451,7 +9457,7 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392" s="3">
+      <c r="A392" s="4">
         <v>1952</v>
       </c>
       <c r="B392" s="3" t="s">
@@ -9465,7 +9471,7 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393" s="3">
+      <c r="A393" s="4">
         <v>1953</v>
       </c>
       <c r="B393" s="3" t="s">
@@ -9479,7 +9485,7 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394" s="3">
+      <c r="A394" s="4">
         <v>1954</v>
       </c>
       <c r="B394" s="3" t="s">
@@ -9493,7 +9499,7 @@
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A395" s="3">
+      <c r="A395" s="4">
         <v>1955</v>
       </c>
       <c r="B395" s="3" t="s">
@@ -9507,7 +9513,7 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A396" s="3">
+      <c r="A396" s="4">
         <v>1956</v>
       </c>
       <c r="B396" s="3" t="s">
@@ -9521,7 +9527,7 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A397" s="3">
+      <c r="A397" s="4">
         <v>1957</v>
       </c>
       <c r="B397" s="3" t="s">
@@ -9535,7 +9541,7 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398" s="3">
+      <c r="A398" s="4">
         <v>1958</v>
       </c>
       <c r="B398" s="3" t="s">
@@ -9549,7 +9555,7 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A399" s="3">
+      <c r="A399" s="4">
         <v>2511</v>
       </c>
       <c r="B399" s="3" t="s">
@@ -9563,7 +9569,7 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A400" s="3">
+      <c r="A400" s="4">
         <v>2512</v>
       </c>
       <c r="B400" s="3" t="s">
@@ -9577,7 +9583,7 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A401" s="3">
+      <c r="A401" s="4">
         <v>2513</v>
       </c>
       <c r="B401" s="3" t="s">
@@ -9591,7 +9597,7 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A402" s="3">
+      <c r="A402" s="4">
         <v>2514</v>
       </c>
       <c r="B402" s="3" t="s">
@@ -9605,7 +9611,7 @@
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A403" s="3">
+      <c r="A403" s="4">
         <v>2515</v>
       </c>
       <c r="B403" s="3" t="s">
@@ -9619,7 +9625,7 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A404" s="3">
+      <c r="A404" s="4">
         <v>2516</v>
       </c>
       <c r="B404" s="3" t="s">
@@ -9633,7 +9639,7 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A405" s="3">
+      <c r="A405" s="4">
         <v>2517</v>
       </c>
       <c r="B405" s="3" t="s">
@@ -9647,7 +9653,7 @@
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A406" s="3">
+      <c r="A406" s="4">
         <v>2518</v>
       </c>
       <c r="B406" s="3" t="s">
@@ -9661,7 +9667,7 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A407" s="3">
+      <c r="A407" s="4">
         <v>2519</v>
       </c>
       <c r="B407" s="3" t="s">
@@ -9675,7 +9681,7 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A408" s="3">
+      <c r="A408" s="4">
         <v>2520</v>
       </c>
       <c r="B408" s="3" t="s">
@@ -9689,7 +9695,7 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A409" s="3">
+      <c r="A409" s="4">
         <v>2521</v>
       </c>
       <c r="B409" s="3" t="s">
@@ -9703,7 +9709,7 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A410" s="3">
+      <c r="A410" s="4">
         <v>2522</v>
       </c>
       <c r="B410" s="3" t="s">
@@ -9717,7 +9723,7 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A411" s="3">
+      <c r="A411" s="4">
         <v>2523</v>
       </c>
       <c r="B411" s="3" t="s">
@@ -9731,7 +9737,7 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A412" s="3">
+      <c r="A412" s="4">
         <v>2524</v>
       </c>
       <c r="B412" s="3" t="s">
@@ -9745,7 +9751,7 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A413" s="3">
+      <c r="A413" s="4">
         <v>2525</v>
       </c>
       <c r="B413" s="3" t="s">
@@ -9759,7 +9765,7 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A414" s="3">
+      <c r="A414" s="4">
         <v>2526</v>
       </c>
       <c r="B414" s="3" t="s">
@@ -9773,7 +9779,7 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A415" s="3">
+      <c r="A415" s="4">
         <v>2527</v>
       </c>
       <c r="B415" s="3" t="s">
@@ -9787,7 +9793,7 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A416" s="3">
+      <c r="A416" s="4">
         <v>2528</v>
       </c>
       <c r="B416" s="3" t="s">
@@ -9801,7 +9807,7 @@
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A417" s="3">
+      <c r="A417" s="4">
         <v>2529</v>
       </c>
       <c r="B417" s="3" t="s">
@@ -9815,7 +9821,7 @@
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A418" s="3">
+      <c r="A418" s="4">
         <v>2530</v>
       </c>
       <c r="B418" s="3" t="s">
@@ -9829,7 +9835,7 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A419" s="3">
+      <c r="A419" s="4">
         <v>2531</v>
       </c>
       <c r="B419" s="3" t="s">
@@ -9843,7 +9849,7 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A420" s="3">
+      <c r="A420" s="4">
         <v>2532</v>
       </c>
       <c r="B420" s="3" t="s">
@@ -9857,7 +9863,7 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A421" s="3">
+      <c r="A421" s="4">
         <v>2533</v>
       </c>
       <c r="B421" s="3" t="s">
@@ -9871,7 +9877,7 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A422" s="3">
+      <c r="A422" s="4">
         <v>2534</v>
       </c>
       <c r="B422" s="3" t="s">
@@ -9885,7 +9891,7 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A423" s="3">
+      <c r="A423" s="4">
         <v>2535</v>
       </c>
       <c r="B423" s="3" t="s">
@@ -9899,7 +9905,7 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A424" s="3">
+      <c r="A424" s="4">
         <v>2536</v>
       </c>
       <c r="B424" s="3" t="s">
@@ -9913,7 +9919,7 @@
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A425" s="3">
+      <c r="A425" s="4">
         <v>2537</v>
       </c>
       <c r="B425" s="3" t="s">
@@ -9927,7 +9933,7 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A426" s="3">
+      <c r="A426" s="4">
         <v>2538</v>
       </c>
       <c r="B426" s="3" t="s">
@@ -9941,7 +9947,7 @@
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A427" s="3">
+      <c r="A427" s="4">
         <v>2539</v>
       </c>
       <c r="B427" s="3" t="s">
@@ -9955,7 +9961,7 @@
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A428" s="3">
+      <c r="A428" s="4">
         <v>2540</v>
       </c>
       <c r="B428" s="3" t="s">
@@ -9969,7 +9975,7 @@
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A429" s="3">
+      <c r="A429" s="4">
         <v>2541</v>
       </c>
       <c r="B429" s="3" t="s">
@@ -9983,7 +9989,7 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A430" s="3">
+      <c r="A430" s="4">
         <v>2542</v>
       </c>
       <c r="B430" s="3" t="s">
@@ -9997,7 +10003,7 @@
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A431" s="3">
+      <c r="A431" s="4">
         <v>2543</v>
       </c>
       <c r="B431" s="3" t="s">
@@ -10011,7 +10017,7 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A432" s="3">
+      <c r="A432" s="4">
         <v>2544</v>
       </c>
       <c r="B432" s="3" t="s">
@@ -10025,7 +10031,7 @@
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A433" s="3">
+      <c r="A433" s="4">
         <v>2545</v>
       </c>
       <c r="B433" s="3" t="s">
@@ -10039,7 +10045,7 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A434" s="3">
+      <c r="A434" s="4">
         <v>2546</v>
       </c>
       <c r="B434" s="3" t="s">
@@ -10053,7 +10059,7 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A435" s="3">
+      <c r="A435" s="4">
         <v>2547</v>
       </c>
       <c r="B435" s="3" t="s">
@@ -10067,7 +10073,7 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A436" s="3">
+      <c r="A436" s="4">
         <v>2548</v>
       </c>
       <c r="B436" s="3" t="s">
@@ -10081,7 +10087,7 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A437" s="3">
+      <c r="A437" s="4">
         <v>2549</v>
       </c>
       <c r="B437" s="3" t="s">
@@ -10095,7 +10101,7 @@
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A438" s="3">
+      <c r="A438" s="4">
         <v>2550</v>
       </c>
       <c r="B438" s="3" t="s">
@@ -10109,7 +10115,7 @@
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A439" s="3">
+      <c r="A439" s="4">
         <v>2551</v>
       </c>
       <c r="B439" s="3" t="s">
@@ -10123,7 +10129,7 @@
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A440" s="3">
+      <c r="A440" s="4">
         <v>2552</v>
       </c>
       <c r="B440" s="3" t="s">
@@ -10137,7 +10143,7 @@
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A441" s="3">
+      <c r="A441" s="4">
         <v>2553</v>
       </c>
       <c r="B441" s="3" t="s">
@@ -10151,7 +10157,7 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A442" s="3">
+      <c r="A442" s="4">
         <v>2554</v>
       </c>
       <c r="B442" s="3" t="s">
@@ -10165,7 +10171,7 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A443" s="3">
+      <c r="A443" s="4">
         <v>2555</v>
       </c>
       <c r="B443" s="3" t="s">
@@ -10179,7 +10185,7 @@
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A444" s="3">
+      <c r="A444" s="4">
         <v>2556</v>
       </c>
       <c r="B444" s="3" t="s">
@@ -10193,7 +10199,7 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A445" s="3">
+      <c r="A445" s="4">
         <v>2557</v>
       </c>
       <c r="B445" s="3" t="s">
@@ -10207,7 +10213,7 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A446" s="3">
+      <c r="A446" s="4">
         <v>2558</v>
       </c>
       <c r="B446" s="3" t="s">
@@ -10221,7 +10227,7 @@
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A447" s="3">
+      <c r="A447" s="4">
         <v>2559</v>
       </c>
       <c r="B447" s="3" t="s">
@@ -10235,7 +10241,7 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A448" s="3">
+      <c r="A448" s="4">
         <v>2560</v>
       </c>
       <c r="B448" s="3" t="s">
@@ -10249,7 +10255,7 @@
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A449" s="3">
+      <c r="A449" s="4">
         <v>2561</v>
       </c>
       <c r="B449" s="3" t="s">
@@ -10263,7 +10269,7 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A450" s="3">
+      <c r="A450" s="4">
         <v>2562</v>
       </c>
       <c r="B450" s="3" t="s">
@@ -10277,7 +10283,7 @@
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A451" s="3">
+      <c r="A451" s="4">
         <v>2563</v>
       </c>
       <c r="B451" s="3" t="s">
@@ -10291,7 +10297,7 @@
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A452" s="3">
+      <c r="A452" s="4">
         <v>2564</v>
       </c>
       <c r="B452" s="3" t="s">
@@ -10305,7 +10311,7 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A453" s="3">
+      <c r="A453" s="4">
         <v>2565</v>
       </c>
       <c r="B453" s="3" t="s">
@@ -10319,7 +10325,7 @@
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A454" s="3">
+      <c r="A454" s="4">
         <v>2566</v>
       </c>
       <c r="B454" s="3" t="s">
@@ -10333,7 +10339,7 @@
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A455" s="3">
+      <c r="A455" s="4">
         <v>2611</v>
       </c>
       <c r="B455" s="3" t="s">
@@ -10347,7 +10353,7 @@
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A456" s="3">
+      <c r="A456" s="4">
         <v>2612</v>
       </c>
       <c r="B456" s="3" t="s">
@@ -10361,7 +10367,7 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A457" s="3">
+      <c r="A457" s="4">
         <v>2613</v>
       </c>
       <c r="B457" s="3" t="s">
@@ -10375,7 +10381,7 @@
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A458" s="3">
+      <c r="A458" s="4">
         <v>2614</v>
       </c>
       <c r="B458" s="3" t="s">
@@ -10389,7 +10395,7 @@
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A459" s="3">
+      <c r="A459" s="4">
         <v>2615</v>
       </c>
       <c r="B459" s="3" t="s">
@@ -10403,7 +10409,7 @@
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A460" s="3">
+      <c r="A460" s="4">
         <v>2616</v>
       </c>
       <c r="B460" s="3" t="s">
@@ -10417,7 +10423,7 @@
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A461" s="3">
+      <c r="A461" s="4">
         <v>2617</v>
       </c>
       <c r="B461" s="3" t="s">
@@ -10431,7 +10437,7 @@
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A462" s="3">
+      <c r="A462" s="4">
         <v>2618</v>
       </c>
       <c r="B462" s="3" t="s">
@@ -10445,7 +10451,7 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A463" s="3">
+      <c r="A463" s="4">
         <v>2619</v>
       </c>
       <c r="B463" s="3" t="s">
@@ -10459,7 +10465,7 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A464" s="3">
+      <c r="A464" s="4">
         <v>2620</v>
       </c>
       <c r="B464" s="3" t="s">
@@ -10473,7 +10479,7 @@
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A465" s="3">
+      <c r="A465" s="4">
         <v>2621</v>
       </c>
       <c r="B465" s="3" t="s">
@@ -10487,7 +10493,7 @@
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A466" s="3">
+      <c r="A466" s="4">
         <v>2622</v>
       </c>
       <c r="B466" s="3" t="s">
@@ -10501,7 +10507,7 @@
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A467" s="3">
+      <c r="A467" s="4">
         <v>2623</v>
       </c>
       <c r="B467" s="3" t="s">
@@ -10515,7 +10521,7 @@
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A468" s="3">
+      <c r="A468" s="4">
         <v>2624</v>
       </c>
       <c r="B468" s="3" t="s">
@@ -10529,7 +10535,7 @@
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A469" s="3">
+      <c r="A469" s="4">
         <v>2625</v>
       </c>
       <c r="B469" s="3" t="s">
@@ -10543,7 +10549,7 @@
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A470" s="3">
+      <c r="A470" s="4">
         <v>2626</v>
       </c>
       <c r="B470" s="3" t="s">
@@ -10557,7 +10563,7 @@
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A471" s="3">
+      <c r="A471" s="4">
         <v>2627</v>
       </c>
       <c r="B471" s="3" t="s">
@@ -10571,7 +10577,7 @@
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A472" s="3">
+      <c r="A472" s="4">
         <v>2628</v>
       </c>
       <c r="B472" s="3" t="s">
@@ -10585,7 +10591,7 @@
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A473" s="3">
+      <c r="A473" s="4">
         <v>2629</v>
       </c>
       <c r="B473" s="3" t="s">
@@ -10599,7 +10605,7 @@
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A474" s="3">
+      <c r="A474" s="4">
         <v>2630</v>
       </c>
       <c r="B474" s="3" t="s">
@@ -10613,7 +10619,7 @@
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A475" s="3">
+      <c r="A475" s="4">
         <v>2631</v>
       </c>
       <c r="B475" s="3" t="s">
@@ -10627,7 +10633,7 @@
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A476" s="3">
+      <c r="A476" s="4">
         <v>2632</v>
       </c>
       <c r="B476" s="3" t="s">
@@ -10641,7 +10647,7 @@
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A477" s="3">
+      <c r="A477" s="4">
         <v>2633</v>
       </c>
       <c r="B477" s="3" t="s">
@@ -10655,7 +10661,7 @@
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A478" s="3">
+      <c r="A478" s="4">
         <v>2634</v>
       </c>
       <c r="B478" s="3" t="s">
@@ -10669,7 +10675,7 @@
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A479" s="3">
+      <c r="A479" s="4">
         <v>2635</v>
       </c>
       <c r="B479" s="3" t="s">
@@ -10683,7 +10689,7 @@
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A480" s="3">
+      <c r="A480" s="4">
         <v>2636</v>
       </c>
       <c r="B480" s="3" t="s">
@@ -10697,7 +10703,7 @@
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A481" s="3">
+      <c r="A481" s="4">
         <v>2637</v>
       </c>
       <c r="B481" s="3" t="s">
@@ -10711,7 +10717,7 @@
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A482" s="3">
+      <c r="A482" s="4">
         <v>2638</v>
       </c>
       <c r="B482" s="3" t="s">
@@ -10725,7 +10731,7 @@
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A483" s="3">
+      <c r="A483" s="4">
         <v>2639</v>
       </c>
       <c r="B483" s="3" t="s">
@@ -10739,7 +10745,7 @@
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A484" s="3">
+      <c r="A484" s="4">
         <v>2640</v>
       </c>
       <c r="B484" s="3" t="s">
@@ -10753,7 +10759,7 @@
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A485" s="3">
+      <c r="A485" s="4">
         <v>2641</v>
       </c>
       <c r="B485" s="3" t="s">
@@ -10767,7 +10773,7 @@
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A486" s="3">
+      <c r="A486" s="4">
         <v>2642</v>
       </c>
       <c r="B486" s="3" t="s">
@@ -10781,7 +10787,7 @@
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A487" s="3">
+      <c r="A487" s="4">
         <v>2643</v>
       </c>
       <c r="B487" s="3" t="s">
@@ -10795,7 +10801,7 @@
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A488" s="3">
+      <c r="A488" s="4">
         <v>2644</v>
       </c>
       <c r="B488" s="3" t="s">
@@ -10809,7 +10815,7 @@
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A489" s="3">
+      <c r="A489" s="4">
         <v>2645</v>
       </c>
       <c r="B489" s="3" t="s">
@@ -10823,7 +10829,7 @@
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A490" s="3">
+      <c r="A490" s="4">
         <v>2646</v>
       </c>
       <c r="B490" s="3" t="s">
@@ -10837,7 +10843,7 @@
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A491" s="3">
+      <c r="A491" s="4">
         <v>2647</v>
       </c>
       <c r="B491" s="3" t="s">
@@ -10851,7 +10857,7 @@
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A492" s="3">
+      <c r="A492" s="4">
         <v>2648</v>
       </c>
       <c r="B492" s="3" t="s">
@@ -10865,7 +10871,7 @@
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A493" s="3">
+      <c r="A493" s="4">
         <v>2649</v>
       </c>
       <c r="B493" s="3" t="s">
@@ -10879,7 +10885,7 @@
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A494" s="3">
+      <c r="A494" s="4">
         <v>2711</v>
       </c>
       <c r="B494" s="3" t="s">
@@ -10893,7 +10899,7 @@
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A495" s="3">
+      <c r="A495" s="4">
         <v>2712</v>
       </c>
       <c r="B495" s="3" t="s">
@@ -10907,7 +10913,7 @@
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A496" s="3">
+      <c r="A496" s="4">
         <v>2713</v>
       </c>
       <c r="B496" s="3" t="s">
@@ -10921,7 +10927,7 @@
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A497" s="3">
+      <c r="A497" s="4">
         <v>2714</v>
       </c>
       <c r="B497" s="3" t="s">
@@ -10935,7 +10941,7 @@
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A498" s="3">
+      <c r="A498" s="4">
         <v>2715</v>
       </c>
       <c r="B498" s="3" t="s">
@@ -10949,7 +10955,7 @@
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A499" s="3">
+      <c r="A499" s="4">
         <v>2716</v>
       </c>
       <c r="B499" s="3" t="s">
@@ -10963,7 +10969,7 @@
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A500" s="3">
+      <c r="A500" s="4">
         <v>2717</v>
       </c>
       <c r="B500" s="3" t="s">
@@ -10977,7 +10983,7 @@
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A501" s="3">
+      <c r="A501" s="4">
         <v>2718</v>
       </c>
       <c r="B501" s="3" t="s">
@@ -10991,7 +10997,7 @@
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A502" s="3">
+      <c r="A502" s="4">
         <v>2719</v>
       </c>
       <c r="B502" s="3" t="s">
@@ -11005,7 +11011,7 @@
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A503" s="3">
+      <c r="A503" s="4">
         <v>2720</v>
       </c>
       <c r="B503" s="3" t="s">
@@ -11019,7 +11025,7 @@
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A504" s="3">
+      <c r="A504" s="4">
         <v>2721</v>
       </c>
       <c r="B504" s="3" t="s">
@@ -11033,7 +11039,7 @@
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A505" s="3">
+      <c r="A505" s="4">
         <v>2722</v>
       </c>
       <c r="B505" s="3" t="s">
@@ -11047,7 +11053,7 @@
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A506" s="3">
+      <c r="A506" s="4">
         <v>2723</v>
       </c>
       <c r="B506" s="3" t="s">
@@ -11061,7 +11067,7 @@
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A507" s="3">
+      <c r="A507" s="4">
         <v>2724</v>
       </c>
       <c r="B507" s="3" t="s">
@@ -11075,7 +11081,7 @@
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A508" s="3">
+      <c r="A508" s="4">
         <v>2725</v>
       </c>
       <c r="B508" s="3" t="s">
@@ -11089,7 +11095,7 @@
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A509" s="3">
+      <c r="A509" s="4">
         <v>2726</v>
       </c>
       <c r="B509" s="3" t="s">
@@ -11103,7 +11109,7 @@
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A510" s="3">
+      <c r="A510" s="4">
         <v>2727</v>
       </c>
       <c r="B510" s="3" t="s">
@@ -11117,7 +11123,7 @@
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A511" s="3">
+      <c r="A511" s="4">
         <v>2728</v>
       </c>
       <c r="B511" s="3" t="s">
@@ -11131,7 +11137,7 @@
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A512" s="3">
+      <c r="A512" s="4">
         <v>2729</v>
       </c>
       <c r="B512" s="3" t="s">
@@ -11145,7 +11151,7 @@
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A513" s="3">
+      <c r="A513" s="4">
         <v>2730</v>
       </c>
       <c r="B513" s="3" t="s">
@@ -11159,7 +11165,7 @@
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A514" s="3">
+      <c r="A514" s="4">
         <v>2731</v>
       </c>
       <c r="B514" s="3" t="s">
@@ -11173,7 +11179,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A515" s="3">
+      <c r="A515" s="4">
         <v>2732</v>
       </c>
       <c r="B515" s="3" t="s">
@@ -11187,7 +11193,7 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A516" s="3">
+      <c r="A516" s="4">
         <v>2733</v>
       </c>
       <c r="B516" s="3" t="s">
@@ -11201,7 +11207,7 @@
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A517" s="3">
+      <c r="A517" s="4">
         <v>2734</v>
       </c>
       <c r="B517" s="3" t="s">
@@ -11215,7 +11221,7 @@
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A518" s="3">
+      <c r="A518" s="4">
         <v>2735</v>
       </c>
       <c r="B518" s="3" t="s">
@@ -11229,7 +11235,7 @@
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A519" s="3">
+      <c r="A519" s="4">
         <v>2736</v>
       </c>
       <c r="B519" s="3" t="s">
@@ -11243,7 +11249,7 @@
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A520" s="3">
+      <c r="A520" s="4">
         <v>2737</v>
       </c>
       <c r="B520" s="3" t="s">
@@ -11257,7 +11263,7 @@
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A521" s="3">
+      <c r="A521" s="4">
         <v>2738</v>
       </c>
       <c r="B521" s="3" t="s">
@@ -11271,7 +11277,7 @@
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A522" s="3">
+      <c r="A522" s="4">
         <v>2739</v>
       </c>
       <c r="B522" s="3" t="s">
@@ -11285,7 +11291,7 @@
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A523" s="3">
+      <c r="A523" s="4">
         <v>2740</v>
       </c>
       <c r="B523" s="3" t="s">
@@ -11299,7 +11305,7 @@
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A524" s="3">
+      <c r="A524" s="4">
         <v>2741</v>
       </c>
       <c r="B524" s="3" t="s">
@@ -11313,7 +11319,7 @@
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A525" s="3">
+      <c r="A525" s="4">
         <v>2742</v>
       </c>
       <c r="B525" s="3" t="s">
@@ -11327,7 +11333,7 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A526" s="3">
+      <c r="A526" s="4">
         <v>2743</v>
       </c>
       <c r="B526" s="3" t="s">
@@ -11341,7 +11347,7 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A527" s="3">
+      <c r="A527" s="4">
         <v>2744</v>
       </c>
       <c r="B527" s="3" t="s">
@@ -11355,7 +11361,7 @@
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A528" s="3">
+      <c r="A528" s="4">
         <v>2745</v>
       </c>
       <c r="B528" s="3" t="s">
@@ -11369,7 +11375,7 @@
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A529" s="3">
+      <c r="A529" s="4">
         <v>2746</v>
       </c>
       <c r="B529" s="3" t="s">
@@ -11383,7 +11389,7 @@
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A530" s="3">
+      <c r="A530" s="4">
         <v>2747</v>
       </c>
       <c r="B530" s="3" t="s">
@@ -11397,7 +11403,7 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A531" s="3">
+      <c r="A531" s="4">
         <v>2748</v>
       </c>
       <c r="B531" s="3" t="s">
@@ -11411,7 +11417,7 @@
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A532" s="3">
+      <c r="A532" s="4">
         <v>2749</v>
       </c>
       <c r="B532" s="3" t="s">
@@ -11425,7 +11431,7 @@
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A533" s="3">
+      <c r="A533" s="4">
         <v>2750</v>
       </c>
       <c r="B533" s="3" t="s">
@@ -11439,7 +11445,7 @@
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A534" s="3">
+      <c r="A534" s="4">
         <v>2751</v>
       </c>
       <c r="B534" s="3" t="s">
@@ -11453,7 +11459,7 @@
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A535" s="3">
+      <c r="A535" s="4">
         <v>2752</v>
       </c>
       <c r="B535" s="3" t="s">
@@ -11467,7 +11473,7 @@
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A536" s="3">
+      <c r="A536" s="4">
         <v>2811</v>
       </c>
       <c r="B536" s="3" t="s">
@@ -11481,7 +11487,7 @@
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A537" s="3">
+      <c r="A537" s="4">
         <v>2812</v>
       </c>
       <c r="B537" s="3" t="s">
@@ -11495,7 +11501,7 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A538" s="3">
+      <c r="A538" s="4">
         <v>2813</v>
       </c>
       <c r="B538" s="3" t="s">
@@ -11509,7 +11515,7 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A539" s="3">
+      <c r="A539" s="4">
         <v>2814</v>
       </c>
       <c r="B539" s="3" t="s">
@@ -11523,7 +11529,7 @@
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A540" s="3">
+      <c r="A540" s="4">
         <v>2815</v>
       </c>
       <c r="B540" s="3" t="s">
@@ -11537,7 +11543,7 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A541" s="3">
+      <c r="A541" s="4">
         <v>2816</v>
       </c>
       <c r="B541" s="3" t="s">
@@ -11551,7 +11557,7 @@
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A542" s="3">
+      <c r="A542" s="4">
         <v>2817</v>
       </c>
       <c r="B542" s="3" t="s">
@@ -11565,7 +11571,7 @@
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A543" s="3">
+      <c r="A543" s="4">
         <v>2818</v>
       </c>
       <c r="B543" s="3" t="s">
@@ -11579,7 +11585,7 @@
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A544" s="3">
+      <c r="A544" s="4">
         <v>2819</v>
       </c>
       <c r="B544" s="3" t="s">
@@ -11593,7 +11599,7 @@
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A545" s="3">
+      <c r="A545" s="4">
         <v>2820</v>
       </c>
       <c r="B545" s="3" t="s">
@@ -11607,7 +11613,7 @@
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A546" s="3">
+      <c r="A546" s="4">
         <v>2821</v>
       </c>
       <c r="B546" s="3" t="s">
@@ -11621,7 +11627,7 @@
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A547" s="3">
+      <c r="A547" s="4">
         <v>2822</v>
       </c>
       <c r="B547" s="3" t="s">
@@ -11635,7 +11641,7 @@
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A548" s="3">
+      <c r="A548" s="4">
         <v>2823</v>
       </c>
       <c r="B548" s="3" t="s">
@@ -11649,7 +11655,7 @@
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A549" s="3">
+      <c r="A549" s="4">
         <v>2824</v>
       </c>
       <c r="B549" s="3" t="s">
@@ -11663,7 +11669,7 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A550" s="3">
+      <c r="A550" s="4">
         <v>2825</v>
       </c>
       <c r="B550" s="3" t="s">
@@ -11677,7 +11683,7 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A551" s="3">
+      <c r="A551" s="4">
         <v>2826</v>
       </c>
       <c r="B551" s="3" t="s">
@@ -11691,7 +11697,7 @@
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A552" s="3">
+      <c r="A552" s="4">
         <v>2827</v>
       </c>
       <c r="B552" s="3" t="s">
@@ -11705,7 +11711,7 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A553" s="3">
+      <c r="A553" s="4">
         <v>2828</v>
       </c>
       <c r="B553" s="3" t="s">
@@ -11719,7 +11725,7 @@
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A554" s="3">
+      <c r="A554" s="4">
         <v>3110</v>
       </c>
       <c r="B554" s="3" t="s">
@@ -11733,7 +11739,7 @@
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A555" s="3">
+      <c r="A555" s="4">
         <v>3111</v>
       </c>
       <c r="B555" s="3" t="s">
@@ -11747,7 +11753,7 @@
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A556" s="3">
+      <c r="A556" s="4">
         <v>3112</v>
       </c>
       <c r="B556" s="3" t="s">
@@ -11761,7 +11767,7 @@
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A557" s="3">
+      <c r="A557" s="4">
         <v>3113</v>
       </c>
       <c r="B557" s="3" t="s">
@@ -11775,7 +11781,7 @@
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A558" s="3">
+      <c r="A558" s="4">
         <v>3114</v>
       </c>
       <c r="B558" s="3" t="s">
@@ -11789,7 +11795,7 @@
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A559" s="3">
+      <c r="A559" s="4">
         <v>3115</v>
       </c>
       <c r="B559" s="3" t="s">
@@ -11803,7 +11809,7 @@
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A560" s="3">
+      <c r="A560" s="4">
         <v>3116</v>
       </c>
       <c r="B560" s="3" t="s">
@@ -11817,7 +11823,7 @@
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A561" s="3">
+      <c r="A561" s="4">
         <v>3117</v>
       </c>
       <c r="B561" s="3" t="s">
@@ -11831,7 +11837,7 @@
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A562" s="3">
+      <c r="A562" s="4">
         <v>3118</v>
       </c>
       <c r="B562" s="3" t="s">
@@ -11845,7 +11851,7 @@
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A563" s="3">
+      <c r="A563" s="4">
         <v>3119</v>
       </c>
       <c r="B563" s="3" t="s">
@@ -11859,7 +11865,7 @@
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A564" s="3">
+      <c r="A564" s="4">
         <v>3120</v>
       </c>
       <c r="B564" s="3" t="s">
@@ -11873,7 +11879,7 @@
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A565" s="3">
+      <c r="A565" s="4">
         <v>3121</v>
       </c>
       <c r="B565" s="3" t="s">
@@ -11887,7 +11893,7 @@
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A566" s="3">
+      <c r="A566" s="4">
         <v>3122</v>
       </c>
       <c r="B566" s="3" t="s">
@@ -11901,7 +11907,7 @@
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A567" s="3">
+      <c r="A567" s="4">
         <v>3123</v>
       </c>
       <c r="B567" s="3" t="s">
@@ -11915,7 +11921,7 @@
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A568" s="3">
+      <c r="A568" s="4">
         <v>3124</v>
       </c>
       <c r="B568" s="3" t="s">
@@ -11929,7 +11935,7 @@
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A569" s="3">
+      <c r="A569" s="4">
         <v>3125</v>
       </c>
       <c r="B569" s="3" t="s">
@@ -11943,7 +11949,7 @@
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A570" s="3">
+      <c r="A570" s="4">
         <v>3126</v>
       </c>
       <c r="B570" s="3" t="s">
@@ -11957,7 +11963,7 @@
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A571" s="3">
+      <c r="A571" s="4">
         <v>3127</v>
       </c>
       <c r="B571" s="3" t="s">
@@ -11971,7 +11977,7 @@
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A572" s="3">
+      <c r="A572" s="4">
         <v>3128</v>
       </c>
       <c r="B572" s="3" t="s">
@@ -11985,7 +11991,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A573" s="3">
+      <c r="A573" s="4">
         <v>3129</v>
       </c>
       <c r="B573" s="3" t="s">
@@ -11999,7 +12005,7 @@
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A574" s="3">
+      <c r="A574" s="4">
         <v>3130</v>
       </c>
       <c r="B574" s="3" t="s">
@@ -12013,7 +12019,7 @@
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A575" s="3">
+      <c r="A575" s="4">
         <v>3131</v>
       </c>
       <c r="B575" s="3" t="s">
@@ -12027,7 +12033,7 @@
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A576" s="3">
+      <c r="A576" s="4">
         <v>3132</v>
       </c>
       <c r="B576" s="3" t="s">
@@ -12041,7 +12047,7 @@
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A577" s="3">
+      <c r="A577" s="4">
         <v>3133</v>
       </c>
       <c r="B577" s="3" t="s">
@@ -12055,7 +12061,7 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A578" s="3">
+      <c r="A578" s="4">
         <v>3134</v>
       </c>
       <c r="B578" s="3" t="s">
@@ -12069,7 +12075,7 @@
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A579" s="3">
+      <c r="A579" s="4">
         <v>3135</v>
       </c>
       <c r="B579" s="3" t="s">
@@ -12083,7 +12089,7 @@
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A580" s="3">
+      <c r="A580" s="4">
         <v>3136</v>
       </c>
       <c r="B580" s="3" t="s">
@@ -12097,7 +12103,7 @@
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A581" s="3">
+      <c r="A581" s="4">
         <v>3137</v>
       </c>
       <c r="B581" s="3" t="s">
@@ -12111,7 +12117,7 @@
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A582" s="3">
+      <c r="A582" s="4">
         <v>3138</v>
       </c>
       <c r="B582" s="3" t="s">
@@ -12125,7 +12131,7 @@
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A583" s="3">
+      <c r="A583" s="4">
         <v>3139</v>
       </c>
       <c r="B583" s="3" t="s">
@@ -12139,7 +12145,7 @@
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A584" s="3">
+      <c r="A584" s="4">
         <v>3201</v>
       </c>
       <c r="B584" s="3" t="s">
@@ -12153,7 +12159,7 @@
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A585" s="3">
+      <c r="A585" s="4">
         <v>3202</v>
       </c>
       <c r="B585" s="3" t="s">
@@ -12167,7 +12173,7 @@
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A586" s="3">
+      <c r="A586" s="4">
         <v>3203</v>
       </c>
       <c r="B586" s="3" t="s">
@@ -12181,7 +12187,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A587" s="3">
+      <c r="A587" s="4">
         <v>3204</v>
       </c>
       <c r="B587" s="3" t="s">
@@ -12195,7 +12201,7 @@
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A588" s="3">
+      <c r="A588" s="4">
         <v>3205</v>
       </c>
       <c r="B588" s="3" t="s">
@@ -12209,7 +12215,7 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A589" s="3">
+      <c r="A589" s="4">
         <v>3206</v>
       </c>
       <c r="B589" s="3" t="s">
@@ -12223,7 +12229,7 @@
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A590" s="3">
+      <c r="A590" s="4">
         <v>3207</v>
       </c>
       <c r="B590" s="3" t="s">
@@ -12237,7 +12243,7 @@
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A591" s="3">
+      <c r="A591" s="4">
         <v>3208</v>
       </c>
       <c r="B591" s="3" t="s">
@@ -12251,7 +12257,7 @@
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A592" s="3">
+      <c r="A592" s="4">
         <v>3209</v>
       </c>
       <c r="B592" s="3" t="s">
@@ -12265,7 +12271,7 @@
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A593" s="3">
+      <c r="A593" s="4">
         <v>3210</v>
       </c>
       <c r="B593" s="3" t="s">
@@ -12279,7 +12285,7 @@
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A594" s="3">
+      <c r="A594" s="4">
         <v>3211</v>
       </c>
       <c r="B594" s="3" t="s">
@@ -12293,7 +12299,7 @@
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A595" s="3">
+      <c r="A595" s="4">
         <v>3212</v>
       </c>
       <c r="B595" s="3" t="s">
@@ -12307,7 +12313,7 @@
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A596" s="3">
+      <c r="A596" s="4">
         <v>3213</v>
       </c>
       <c r="B596" s="3" t="s">
@@ -12321,7 +12327,7 @@
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A597" s="3">
+      <c r="A597" s="4">
         <v>3214</v>
       </c>
       <c r="B597" s="3" t="s">
@@ -12335,7 +12341,7 @@
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A598" s="3">
+      <c r="A598" s="4">
         <v>3215</v>
       </c>
       <c r="B598" s="3" t="s">
@@ -12349,7 +12355,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A599" s="3">
+      <c r="A599" s="4">
         <v>3216</v>
       </c>
       <c r="B599" s="3" t="s">
@@ -12363,7 +12369,7 @@
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A600" s="3">
+      <c r="A600" s="4">
         <v>3217</v>
       </c>
       <c r="B600" s="3" t="s">
@@ -12377,7 +12383,7 @@
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A601" s="3">
+      <c r="A601" s="4">
         <v>3218</v>
       </c>
       <c r="B601" s="3" t="s">
@@ -12391,7 +12397,7 @@
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A602" s="3">
+      <c r="A602" s="4">
         <v>3219</v>
       </c>
       <c r="B602" s="3" t="s">
@@ -12405,7 +12411,7 @@
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A603" s="3">
+      <c r="A603" s="4">
         <v>3220</v>
       </c>
       <c r="B603" s="3" t="s">
@@ -12419,7 +12425,7 @@
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A604" s="3">
+      <c r="A604" s="4">
         <v>3221</v>
       </c>
       <c r="B604" s="3" t="s">
@@ -12433,7 +12439,7 @@
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A605" s="3">
+      <c r="A605" s="4">
         <v>3222</v>
       </c>
       <c r="B605" s="3" t="s">
@@ -12447,7 +12453,7 @@
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A606" s="3">
+      <c r="A606" s="4">
         <v>3223</v>
       </c>
       <c r="B606" s="3" t="s">
@@ -12461,7 +12467,7 @@
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A607" s="3">
+      <c r="A607" s="4">
         <v>3224</v>
       </c>
       <c r="B607" s="3" t="s">
@@ -12475,7 +12481,7 @@
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A608" s="3">
+      <c r="A608" s="4">
         <v>3225</v>
       </c>
       <c r="B608" s="3" t="s">
@@ -12489,7 +12495,7 @@
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A609" s="3">
+      <c r="A609" s="4">
         <v>3226</v>
       </c>
       <c r="B609" s="3" t="s">
@@ -12503,7 +12509,7 @@
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A610" s="3">
+      <c r="A610" s="4">
         <v>3227</v>
       </c>
       <c r="B610" s="3" t="s">
@@ -12517,7 +12523,7 @@
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A611" s="3">
+      <c r="A611" s="4">
         <v>3753</v>
       </c>
       <c r="B611" s="3" t="s">
@@ -12531,7 +12537,7 @@
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A612" s="3">
+      <c r="A612" s="4">
         <v>3754</v>
       </c>
       <c r="B612" s="3" t="s">
@@ -12545,7 +12551,7 @@
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A613" s="3">
+      <c r="A613" s="4">
         <v>3755</v>
       </c>
       <c r="B613" s="3" t="s">
@@ -12559,7 +12565,7 @@
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A614" s="3">
+      <c r="A614" s="4">
         <v>3756</v>
       </c>
       <c r="B614" s="3" t="s">
@@ -12573,7 +12579,7 @@
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A615" s="3">
+      <c r="A615" s="4">
         <v>3757</v>
       </c>
       <c r="B615" s="3" t="s">
@@ -12587,7 +12593,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A616" s="3">
+      <c r="A616" s="4">
         <v>3758</v>
       </c>
       <c r="B616" s="3" t="s">
@@ -12601,7 +12607,7 @@
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A617" s="3">
+      <c r="A617" s="4">
         <v>3759</v>
       </c>
       <c r="B617" s="3" t="s">
@@ -12615,7 +12621,7 @@
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A618" s="3">
+      <c r="A618" s="4">
         <v>3760</v>
       </c>
       <c r="B618" s="3" t="s">
@@ -12629,7 +12635,7 @@
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A619" s="3">
+      <c r="A619" s="4">
         <v>3761</v>
       </c>
       <c r="B619" s="3" t="s">
@@ -12643,7 +12649,7 @@
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A620" s="3">
+      <c r="A620" s="4">
         <v>3762</v>
       </c>
       <c r="B620" s="3" t="s">
@@ -12657,7 +12663,7 @@
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A621" s="3">
+      <c r="A621" s="4">
         <v>3763</v>
       </c>
       <c r="B621" s="3" t="s">
@@ -12671,7 +12677,7 @@
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A622" s="3">
+      <c r="A622" s="4">
         <v>4101</v>
       </c>
       <c r="B622" s="3" t="s">
@@ -12685,7 +12691,7 @@
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A623" s="3">
+      <c r="A623" s="4">
         <v>4102</v>
       </c>
       <c r="B623" s="3" t="s">
@@ -12699,7 +12705,7 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A624" s="3">
+      <c r="A624" s="4">
         <v>4103</v>
       </c>
       <c r="B624" s="3" t="s">
@@ -12713,7 +12719,7 @@
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A625" s="3">
+      <c r="A625" s="4">
         <v>4104</v>
       </c>
       <c r="B625" s="3" t="s">
@@ -12727,7 +12733,7 @@
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A626" s="3">
+      <c r="A626" s="4">
         <v>4105</v>
       </c>
       <c r="B626" s="3" t="s">
@@ -12741,7 +12747,7 @@
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A627" s="3">
+      <c r="A627" s="4">
         <v>4106</v>
       </c>
       <c r="B627" s="3" t="s">
@@ -12755,7 +12761,7 @@
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A628" s="3">
+      <c r="A628" s="4">
         <v>4107</v>
       </c>
       <c r="B628" s="3" t="s">
@@ -12769,7 +12775,7 @@
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A629" s="3">
+      <c r="A629" s="4">
         <v>4108</v>
       </c>
       <c r="B629" s="3" t="s">
@@ -12783,7 +12789,7 @@
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A630" s="3">
+      <c r="A630" s="4">
         <v>4109</v>
       </c>
       <c r="B630" s="3" t="s">
@@ -12797,7 +12803,7 @@
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A631" s="3">
+      <c r="A631" s="4">
         <v>4110</v>
       </c>
       <c r="B631" s="3" t="s">
@@ -12811,7 +12817,7 @@
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A632" s="3">
+      <c r="A632" s="4">
         <v>4111</v>
       </c>
       <c r="B632" s="3" t="s">
@@ -12825,7 +12831,7 @@
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A633" s="3">
+      <c r="A633" s="4">
         <v>4112</v>
       </c>
       <c r="B633" s="3" t="s">
@@ -12839,7 +12845,7 @@
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A634" s="3">
+      <c r="A634" s="4">
         <v>4113</v>
       </c>
       <c r="B634" s="3" t="s">
@@ -12853,7 +12859,7 @@
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A635" s="3">
+      <c r="A635" s="4">
         <v>4114</v>
       </c>
       <c r="B635" s="3" t="s">
@@ -12867,7 +12873,7 @@
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A636" s="3">
+      <c r="A636" s="4">
         <v>4115</v>
       </c>
       <c r="B636" s="3" t="s">
@@ -12881,7 +12887,7 @@
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A637" s="3">
+      <c r="A637" s="4">
         <v>4116</v>
       </c>
       <c r="B637" s="3" t="s">
@@ -12895,7 +12901,7 @@
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A638" s="3">
+      <c r="A638" s="4">
         <v>4117</v>
       </c>
       <c r="B638" s="3" t="s">
@@ -12909,7 +12915,7 @@
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A639" s="3">
+      <c r="A639" s="4">
         <v>4118</v>
       </c>
       <c r="B639" s="3" t="s">
@@ -12923,7 +12929,7 @@
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A640" s="3">
+      <c r="A640" s="4">
         <v>4119</v>
       </c>
       <c r="B640" s="3" t="s">
@@ -12937,7 +12943,7 @@
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A641" s="3">
+      <c r="A641" s="4">
         <v>4120</v>
       </c>
       <c r="B641" s="3" t="s">
@@ -12951,7 +12957,7 @@
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A642" s="3">
+      <c r="A642" s="4">
         <v>4121</v>
       </c>
       <c r="B642" s="3" t="s">
@@ -12965,7 +12971,7 @@
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A643" s="3">
+      <c r="A643" s="4">
         <v>4122</v>
       </c>
       <c r="B643" s="3" t="s">
@@ -12979,7 +12985,7 @@
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A644" s="3">
+      <c r="A644" s="4">
         <v>4123</v>
       </c>
       <c r="B644" s="3" t="s">
@@ -12993,7 +12999,7 @@
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A645" s="3">
+      <c r="A645" s="4">
         <v>4124</v>
       </c>
       <c r="B645" s="3" t="s">
@@ -13007,7 +13013,7 @@
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A646" s="3">
+      <c r="A646" s="4">
         <v>4125</v>
       </c>
       <c r="B646" s="3" t="s">
@@ -13021,7 +13027,7 @@
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A647" s="3">
+      <c r="A647" s="4">
         <v>4126</v>
       </c>
       <c r="B647" s="3" t="s">
@@ -13035,7 +13041,7 @@
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A648" s="3">
+      <c r="A648" s="4">
         <v>4127</v>
       </c>
       <c r="B648" s="3" t="s">
@@ -13049,7 +13055,7 @@
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A649" s="3">
+      <c r="A649" s="4">
         <v>4128</v>
       </c>
       <c r="B649" s="3" t="s">
@@ -13063,7 +13069,7 @@
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A650" s="3">
+      <c r="A650" s="4">
         <v>4129</v>
       </c>
       <c r="B650" s="3" t="s">
@@ -13077,7 +13083,7 @@
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A651" s="3">
+      <c r="A651" s="4">
         <v>4130</v>
       </c>
       <c r="B651" s="3" t="s">
@@ -13091,7 +13097,7 @@
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A652" s="3">
+      <c r="A652" s="4">
         <v>4131</v>
       </c>
       <c r="B652" s="3" t="s">
@@ -13105,7 +13111,7 @@
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A653" s="3">
+      <c r="A653" s="4">
         <v>4132</v>
       </c>
       <c r="B653" s="3" t="s">
@@ -13119,7 +13125,7 @@
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A654" s="3">
+      <c r="A654" s="4">
         <v>4133</v>
       </c>
       <c r="B654" s="3" t="s">
@@ -13133,7 +13139,7 @@
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A655" s="3">
+      <c r="A655" s="4">
         <v>4134</v>
       </c>
       <c r="B655" s="3" t="s">
@@ -13147,7 +13153,7 @@
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A656" s="3">
+      <c r="A656" s="4">
         <v>4135</v>
       </c>
       <c r="B656" s="3" t="s">
@@ -13161,7 +13167,7 @@
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A657" s="3">
+      <c r="A657" s="4">
         <v>4136</v>
       </c>
       <c r="B657" s="3" t="s">
@@ -13175,7 +13181,7 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A658" s="3">
+      <c r="A658" s="4">
         <v>4137</v>
       </c>
       <c r="B658" s="3" t="s">
@@ -13189,7 +13195,7 @@
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A659" s="3">
+      <c r="A659" s="4">
         <v>4138</v>
       </c>
       <c r="B659" s="3" t="s">
@@ -13203,7 +13209,7 @@
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A660" s="3">
+      <c r="A660" s="4">
         <v>4201</v>
       </c>
       <c r="B660" s="3" t="s">
@@ -13217,7 +13223,7 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A661" s="3">
+      <c r="A661" s="4">
         <v>4202</v>
       </c>
       <c r="B661" s="3" t="s">
@@ -13231,7 +13237,7 @@
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A662" s="3">
+      <c r="A662" s="4">
         <v>4203</v>
       </c>
       <c r="B662" s="3" t="s">
@@ -13245,7 +13251,7 @@
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A663" s="3">
+      <c r="A663" s="4">
         <v>4204</v>
       </c>
       <c r="B663" s="3" t="s">
@@ -13259,7 +13265,7 @@
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A664" s="3">
+      <c r="A664" s="4">
         <v>4206</v>
       </c>
       <c r="B664" s="3" t="s">
@@ -13273,7 +13279,7 @@
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A665" s="3">
+      <c r="A665" s="4">
         <v>4207</v>
       </c>
       <c r="B665" s="3" t="s">
@@ -13287,7 +13293,7 @@
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A666" s="3">
+      <c r="A666" s="4">
         <v>4208</v>
       </c>
       <c r="B666" s="3" t="s">
@@ -13301,7 +13307,7 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A667" s="3">
+      <c r="A667" s="4">
         <v>4209</v>
       </c>
       <c r="B667" s="3" t="s">
@@ -13315,7 +13321,7 @@
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A668" s="3">
+      <c r="A668" s="4">
         <v>4210</v>
       </c>
       <c r="B668" s="3" t="s">
@@ -13329,7 +13335,7 @@
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A669" s="3">
+      <c r="A669" s="4">
         <v>4211</v>
       </c>
       <c r="B669" s="3" t="s">
@@ -13343,7 +13349,7 @@
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A670" s="3">
+      <c r="A670" s="4">
         <v>4212</v>
       </c>
       <c r="B670" s="3" t="s">
@@ -13357,7 +13363,7 @@
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A671" s="3">
+      <c r="A671" s="4">
         <v>4213</v>
       </c>
       <c r="B671" s="3" t="s">
@@ -13371,7 +13377,7 @@
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A672" s="3">
+      <c r="A672" s="4">
         <v>4215</v>
       </c>
       <c r="B672" s="3" t="s">
@@ -13385,7 +13391,7 @@
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A673" s="3">
+      <c r="A673" s="4">
         <v>4217</v>
       </c>
       <c r="B673" s="3" t="s">
@@ -13399,7 +13405,7 @@
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A674" s="3">
+      <c r="A674" s="4">
         <v>4304</v>
       </c>
       <c r="B674" s="3" t="s">
@@ -13413,7 +13419,7 @@
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A675" s="3">
+      <c r="A675" s="4">
         <v>4305</v>
       </c>
       <c r="B675" s="3" t="s">
@@ -13427,7 +13433,7 @@
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A676" s="3">
+      <c r="A676" s="4">
         <v>4306</v>
       </c>
       <c r="B676" s="3" t="s">
@@ -13441,7 +13447,7 @@
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A677" s="3">
+      <c r="A677" s="4">
         <v>4307</v>
       </c>
       <c r="B677" s="3" t="s">
@@ -13455,7 +13461,7 @@
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A678" s="3">
+      <c r="A678" s="4">
         <v>4308</v>
       </c>
       <c r="B678" s="3" t="s">
@@ -13469,7 +13475,7 @@
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A679" s="3">
+      <c r="A679" s="4">
         <v>4309</v>
       </c>
       <c r="B679" s="3" t="s">
@@ -13483,7 +13489,7 @@
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A680" s="3">
+      <c r="A680" s="4">
         <v>4310</v>
       </c>
       <c r="B680" s="3" t="s">
@@ -13497,7 +13503,7 @@
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A681" s="3">
+      <c r="A681" s="4">
         <v>4311</v>
       </c>
       <c r="B681" s="3" t="s">
@@ -13511,7 +13517,7 @@
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A682" s="3">
+      <c r="A682" s="4">
         <v>4312</v>
       </c>
       <c r="B682" s="3" t="s">
@@ -13525,7 +13531,7 @@
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A683" s="3">
+      <c r="A683" s="4">
         <v>4313</v>
       </c>
       <c r="B683" s="3" t="s">
@@ -13539,7 +13545,7 @@
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A684" s="3">
+      <c r="A684" s="4">
         <v>4314</v>
       </c>
       <c r="B684" s="3" t="s">
@@ -13553,7 +13559,7 @@
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A685" s="3">
+      <c r="A685" s="4">
         <v>4315</v>
       </c>
       <c r="B685" s="3" t="s">
@@ -13567,7 +13573,7 @@
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A686" s="3">
+      <c r="A686" s="4">
         <v>4316</v>
       </c>
       <c r="B686" s="3" t="s">
@@ -13581,7 +13587,7 @@
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A687" s="3">
+      <c r="A687" s="4">
         <v>4317</v>
       </c>
       <c r="B687" s="3" t="s">
@@ -13595,7 +13601,7 @@
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A688" s="3">
+      <c r="A688" s="4">
         <v>4318</v>
       </c>
       <c r="B688" s="3" t="s">
@@ -13609,7 +13615,7 @@
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A689" s="3">
+      <c r="A689" s="4">
         <v>4319</v>
       </c>
       <c r="B689" s="3" t="s">
@@ -13623,7 +13629,7 @@
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A690" s="3">
+      <c r="A690" s="4">
         <v>4401</v>
       </c>
       <c r="B690" s="3" t="s">
@@ -13635,7 +13641,7 @@
       <c r="D690" s="3"/>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A691" s="3">
+      <c r="A691" s="4">
         <v>4402</v>
       </c>
       <c r="B691" s="3" t="s">
@@ -13647,7 +13653,7 @@
       <c r="D691" s="3"/>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A692" s="3">
+      <c r="A692" s="4">
         <v>4403</v>
       </c>
       <c r="B692" s="3" t="s">
@@ -13659,7 +13665,7 @@
       <c r="D692" s="3"/>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A693" s="3">
+      <c r="A693" s="4">
         <v>4404</v>
       </c>
       <c r="B693" s="3" t="s">
@@ -13671,7 +13677,7 @@
       <c r="D693" s="3"/>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A694" s="3">
+      <c r="A694" s="4">
         <v>4405</v>
       </c>
       <c r="B694" s="3" t="s">
@@ -13683,7 +13689,7 @@
       <c r="D694" s="3"/>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A695" s="3">
+      <c r="A695" s="4">
         <v>4406</v>
       </c>
       <c r="B695" s="3" t="s">
@@ -13695,7 +13701,7 @@
       <c r="D695" s="3"/>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A696" s="3">
+      <c r="A696" s="4">
         <v>4407</v>
       </c>
       <c r="B696" s="3" t="s">
@@ -13707,7 +13713,7 @@
       <c r="D696" s="3"/>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A697" s="3">
+      <c r="A697" s="4">
         <v>4408</v>
       </c>
       <c r="B697" s="3" t="s">
@@ -13719,7 +13725,7 @@
       <c r="D697" s="3"/>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A698" s="3">
+      <c r="A698" s="4">
         <v>4409</v>
       </c>
       <c r="B698" s="3" t="s">
@@ -13731,7 +13737,7 @@
       <c r="D698" s="3"/>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A699" s="3">
+      <c r="A699" s="4">
         <v>4410</v>
       </c>
       <c r="B699" s="3" t="s">
@@ -13743,7 +13749,7 @@
       <c r="D699" s="3"/>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A700" s="3">
+      <c r="A700" s="4">
         <v>4411</v>
       </c>
       <c r="B700" s="3" t="s">
@@ -13755,7 +13761,7 @@
       <c r="D700" s="3"/>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A701" s="3">
+      <c r="A701" s="4">
         <v>4501</v>
       </c>
       <c r="B701" s="3" t="s">
@@ -13769,7 +13775,7 @@
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A702" s="3">
+      <c r="A702" s="4">
         <v>4502</v>
       </c>
       <c r="B702" s="3" t="s">
@@ -13783,7 +13789,7 @@
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A703" s="3">
+      <c r="A703" s="4">
         <v>4503</v>
       </c>
       <c r="B703" s="3" t="s">
@@ -13797,7 +13803,7 @@
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A704" s="3">
+      <c r="A704" s="4">
         <v>4504</v>
       </c>
       <c r="B704" s="3" t="s">
@@ -13811,7 +13817,7 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A705" s="3">
+      <c r="A705" s="4">
         <v>4505</v>
       </c>
       <c r="B705" s="3" t="s">
@@ -13825,7 +13831,7 @@
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A706" s="3">
+      <c r="A706" s="4">
         <v>4506</v>
       </c>
       <c r="B706" s="3" t="s">
@@ -13839,7 +13845,7 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A707" s="3">
+      <c r="A707" s="4">
         <v>4508</v>
       </c>
       <c r="B707" s="3" t="s">
@@ -13853,7 +13859,7 @@
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A708" s="3">
+      <c r="A708" s="4">
         <v>4509</v>
       </c>
       <c r="B708" s="3" t="s">
@@ -13867,7 +13873,7 @@
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A709" s="3">
+      <c r="A709" s="4">
         <v>4510</v>
       </c>
       <c r="B709" s="3" t="s">
@@ -13881,7 +13887,7 @@
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A710" s="3">
+      <c r="A710" s="4">
         <v>4511</v>
       </c>
       <c r="B710" s="3" t="s">
@@ -13895,7 +13901,7 @@
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A711" s="3">
+      <c r="A711" s="4">
         <v>4512</v>
       </c>
       <c r="B711" s="3" t="s">
@@ -13909,7 +13915,7 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A712" s="3">
+      <c r="A712" s="4">
         <v>4513</v>
       </c>
       <c r="B712" s="3" t="s">
@@ -13923,7 +13929,7 @@
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A713" s="3">
+      <c r="A713" s="4">
         <v>4514</v>
       </c>
       <c r="B713" s="3" t="s">
@@ -13937,7 +13943,7 @@
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A714" s="3">
+      <c r="A714" s="4">
         <v>4515</v>
       </c>
       <c r="B714" s="3" t="s">
@@ -13951,7 +13957,7 @@
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A715" s="3">
+      <c r="A715" s="4">
         <v>4517</v>
       </c>
       <c r="B715" s="3" t="s">
@@ -13965,7 +13971,7 @@
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A716" s="3">
+      <c r="A716" s="4">
         <v>4601</v>
       </c>
       <c r="B716" s="3" t="s">
@@ -13979,7 +13985,7 @@
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A717" s="3">
+      <c r="A717" s="4">
         <v>4602</v>
       </c>
       <c r="B717" s="3" t="s">
@@ -13993,7 +13999,7 @@
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A718" s="3">
+      <c r="A718" s="4">
         <v>4603</v>
       </c>
       <c r="B718" s="3" t="s">
@@ -14007,7 +14013,7 @@
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A719" s="3">
+      <c r="A719" s="4">
         <v>4604</v>
       </c>
       <c r="B719" s="3" t="s">
@@ -14021,7 +14027,7 @@
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A720" s="3">
+      <c r="A720" s="4">
         <v>4605</v>
       </c>
       <c r="B720" s="3" t="s">
@@ -14035,7 +14041,7 @@
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A721" s="3">
+      <c r="A721" s="4">
         <v>4606</v>
       </c>
       <c r="B721" s="3" t="s">
@@ -14049,7 +14055,7 @@
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A722" s="3">
+      <c r="A722" s="4">
         <v>4607</v>
       </c>
       <c r="B722" s="3" t="s">
@@ -14063,7 +14069,7 @@
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A723" s="3">
+      <c r="A723" s="4">
         <v>4608</v>
       </c>
       <c r="B723" s="3" t="s">
@@ -14077,7 +14083,7 @@
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A724" s="3">
+      <c r="A724" s="4">
         <v>4609</v>
       </c>
       <c r="B724" s="3" t="s">
@@ -14091,7 +14097,7 @@
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A725" s="3">
+      <c r="A725" s="4">
         <v>4610</v>
       </c>
       <c r="B725" s="3" t="s">
@@ -14105,7 +14111,7 @@
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A726" s="3">
+      <c r="A726" s="4">
         <v>4611</v>
       </c>
       <c r="B726" s="3" t="s">
@@ -14119,7 +14125,7 @@
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A727" s="3">
+      <c r="A727" s="4">
         <v>4612</v>
       </c>
       <c r="B727" s="3" t="s">
@@ -14133,7 +14139,7 @@
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A728" s="3">
+      <c r="A728" s="4">
         <v>4613</v>
       </c>
       <c r="B728" s="3" t="s">
@@ -14147,7 +14153,7 @@
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A729" s="3">
+      <c r="A729" s="4">
         <v>4614</v>
       </c>
       <c r="B729" s="3" t="s">
@@ -14161,7 +14167,7 @@
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A730" s="3">
+      <c r="A730" s="4">
         <v>4615</v>
       </c>
       <c r="B730" s="3" t="s">
@@ -14175,7 +14181,7 @@
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A731" s="3">
+      <c r="A731" s="4">
         <v>4701</v>
       </c>
       <c r="B731" s="3" t="s">
@@ -14189,7 +14195,7 @@
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A732" s="3">
+      <c r="A732" s="4">
         <v>4702</v>
       </c>
       <c r="B732" s="3" t="s">
@@ -14203,7 +14209,7 @@
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A733" s="3">
+      <c r="A733" s="4">
         <v>4703</v>
       </c>
       <c r="B733" s="3" t="s">
@@ -14217,7 +14223,7 @@
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A734" s="3">
+      <c r="A734" s="4">
         <v>4704</v>
       </c>
       <c r="B734" s="3" t="s">
@@ -14231,7 +14237,7 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A735" s="3">
+      <c r="A735" s="4">
         <v>4705</v>
       </c>
       <c r="B735" s="3" t="s">
@@ -14245,7 +14251,7 @@
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A736" s="3">
+      <c r="A736" s="4">
         <v>4706</v>
       </c>
       <c r="B736" s="3" t="s">
@@ -14259,7 +14265,7 @@
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A737" s="3">
+      <c r="A737" s="4">
         <v>4707</v>
       </c>
       <c r="B737" s="3" t="s">
@@ -14273,7 +14279,7 @@
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A738" s="3">
+      <c r="A738" s="4">
         <v>4708</v>
       </c>
       <c r="B738" s="3" t="s">
@@ -14287,7 +14293,7 @@
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A739" s="3">
+      <c r="A739" s="4">
         <v>4709</v>
       </c>
       <c r="B739" s="3" t="s">
@@ -14301,7 +14307,7 @@
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A740" s="3">
+      <c r="A740" s="4">
         <v>4710</v>
       </c>
       <c r="B740" s="3" t="s">
@@ -14315,7 +14321,7 @@
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A741" s="3">
+      <c r="A741" s="4">
         <v>4711</v>
       </c>
       <c r="B741" s="3" t="s">
@@ -14329,7 +14335,7 @@
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A742" s="3">
+      <c r="A742" s="4">
         <v>4712</v>
       </c>
       <c r="B742" s="3" t="s">
@@ -14343,7 +14349,7 @@
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A743" s="3">
+      <c r="A743" s="4">
         <v>4713</v>
       </c>
       <c r="B743" s="3" t="s">
@@ -14357,7 +14363,7 @@
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A744" s="3">
+      <c r="A744" s="4">
         <v>4804</v>
       </c>
       <c r="B744" s="3" t="s">
@@ -14371,7 +14377,7 @@
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A745" s="3">
+      <c r="A745" s="4">
         <v>4805</v>
       </c>
       <c r="B745" s="3" t="s">
@@ -14385,7 +14391,7 @@
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A746" s="3">
+      <c r="A746" s="4">
         <v>4806</v>
       </c>
       <c r="B746" s="3" t="s">
@@ -14399,7 +14405,7 @@
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A747" s="3">
+      <c r="A747" s="4">
         <v>4807</v>
       </c>
       <c r="B747" s="3" t="s">
@@ -14413,7 +14419,7 @@
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A748" s="3">
+      <c r="A748" s="4">
         <v>4808</v>
       </c>
       <c r="B748" s="3" t="s">
@@ -14427,7 +14433,7 @@
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A749" s="3">
+      <c r="A749" s="4">
         <v>4809</v>
       </c>
       <c r="B749" s="3" t="s">
@@ -14441,7 +14447,7 @@
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A750" s="3">
+      <c r="A750" s="4">
         <v>4810</v>
       </c>
       <c r="B750" s="3" t="s">
@@ -14455,7 +14461,7 @@
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A751" s="3">
+      <c r="A751" s="4">
         <v>4811</v>
       </c>
       <c r="B751" s="3" t="s">
@@ -14469,7 +14475,7 @@
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A752" s="3">
+      <c r="A752" s="4">
         <v>4812</v>
       </c>
       <c r="B752" s="3" t="s">
@@ -14483,7 +14489,7 @@
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A753" s="3">
+      <c r="A753" s="4">
         <v>4813</v>
       </c>
       <c r="B753" s="3" t="s">
@@ -14497,7 +14503,7 @@
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A754" s="3">
+      <c r="A754" s="4">
         <v>4814</v>
       </c>
       <c r="B754" s="3" t="s">
@@ -14511,7 +14517,7 @@
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A755" s="3">
+      <c r="A755" s="4">
         <v>4815</v>
       </c>
       <c r="B755" s="3" t="s">
@@ -14525,7 +14531,7 @@
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A756" s="3">
+      <c r="A756" s="4">
         <v>4920</v>
       </c>
       <c r="B756" s="3" t="s">
@@ -14539,7 +14545,7 @@
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A757" s="3">
+      <c r="A757" s="4">
         <v>4921</v>
       </c>
       <c r="B757" s="3" t="s">
@@ -14553,7 +14559,7 @@
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A758" s="3">
+      <c r="A758" s="4">
         <v>4922</v>
       </c>
       <c r="B758" s="3" t="s">
@@ -14567,7 +14573,7 @@
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A759" s="3">
+      <c r="A759" s="4">
         <v>4923</v>
       </c>
       <c r="B759" s="3" t="s">
@@ -14581,7 +14587,7 @@
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A760" s="3">
+      <c r="A760" s="4">
         <v>4924</v>
       </c>
       <c r="B760" s="3" t="s">
@@ -14595,7 +14601,7 @@
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A761" s="3">
+      <c r="A761" s="4">
         <v>4925</v>
       </c>
       <c r="B761" s="3" t="s">
@@ -14609,7 +14615,7 @@
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A762" s="3">
+      <c r="A762" s="4">
         <v>4926</v>
       </c>
       <c r="B762" s="3" t="s">
@@ -14623,7 +14629,7 @@
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A763" s="3">
+      <c r="A763" s="4">
         <v>4927</v>
       </c>
       <c r="B763" s="3" t="s">
@@ -14637,7 +14643,7 @@
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A764" s="3">
+      <c r="A764" s="4">
         <v>4928</v>
       </c>
       <c r="B764" s="3" t="s">
@@ -14651,7 +14657,7 @@
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A765" s="3">
+      <c r="A765" s="4">
         <v>4929</v>
       </c>
       <c r="B765" s="3" t="s">
@@ -14665,7 +14671,7 @@
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A766" s="3" t="s">
+      <c r="A766" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B766" s="3" t="s">
@@ -14679,7 +14685,7 @@
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A767" s="3" t="s">
+      <c r="A767" s="4" t="s">
         <v>792</v>
       </c>
       <c r="B767" s="3" t="s">
@@ -14693,7 +14699,7 @@
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A768" s="3" t="s">
+      <c r="A768" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B768" s="3" t="s">
@@ -14714,5 +14720,6 @@
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>